--- a/Results/summary_5_fold_eva.xlsx
+++ b/Results/summary_5_fold_eva.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\channelmatrix_2d\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\channelmatrix_2d\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3DD5EA-F648-4C46-A8D0-1F6CE0C23412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E71F57-DCC7-40D9-B502-5AD2844A636F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="control" sheetId="2" r:id="rId1"/>
     <sheet name="experimental, res.= 9" sheetId="3" r:id="rId2"/>
-    <sheet name="experimental, res.= 24" sheetId="1" r:id="rId3"/>
+    <sheet name="experimental, res.= 16" sheetId="4" r:id="rId3"/>
+    <sheet name="experimental, res.= 24" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="66">
   <si>
     <t>Identifier</t>
   </si>
@@ -278,18 +279,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -340,25 +335,25 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -665,29 +660,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812FEE00-37CD-4574-A5FD-C310DAF701EF}">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="6"/>
+    <col min="1" max="2" width="8.875" style="5"/>
+    <col min="10" max="14" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
       <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="J1" s="8" t="s">
         <v>51</v>
       </c>
@@ -701,19 +697,19 @@
       <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D2" t="s">
@@ -725,10 +721,10 @@
       <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="4" t="b">
+      <c r="G2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="6"/>
       <c r="J2" s="8" t="s">
         <v>57</v>
       </c>
@@ -752,17 +748,17 @@
       <c r="R2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="4" t="b">
+      <c r="S2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="T2" s="4"/>
+      <c r="T2" s="6"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -813,11 +809,11 @@
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D4" t="s">
@@ -839,16 +835,16 @@
         <v>5</v>
       </c>
       <c r="K4" s="8">
-        <v>71.056670040398274</v>
+        <v>82.774158946011639</v>
       </c>
       <c r="L4" s="8">
-        <v>1.6086981179075741</v>
+        <v>0.7635994343905772</v>
       </c>
       <c r="M4" s="8">
-        <v>0.71056670040398273</v>
+        <v>0.82774158946011644</v>
       </c>
       <c r="N4" s="8">
-        <v>0.65179514635383273</v>
+        <v>0.7984289635727051</v>
       </c>
       <c r="P4" t="s">
         <v>5</v>
@@ -866,11 +862,11 @@
         <v>78.277808734107865</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
@@ -892,16 +888,16 @@
         <v>6</v>
       </c>
       <c r="K5" s="8">
-        <v>58.063651069645928</v>
+        <v>70.266957326620471</v>
       </c>
       <c r="L5" s="8">
-        <v>3.3122686018041949</v>
+        <v>1.213398432844853</v>
       </c>
       <c r="M5" s="8">
-        <v>0.58063651069645927</v>
+        <v>0.70266957326620472</v>
       </c>
       <c r="N5" s="8">
-        <v>0.49173993712296887</v>
+        <v>0.65438208222332894</v>
       </c>
       <c r="P5" t="s">
         <v>6</v>
@@ -919,7 +915,7 @@
         <v>60.264524976406904</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -939,16 +935,16 @@
         <v>7</v>
       </c>
       <c r="K6" s="8">
-        <v>64.589572574157216</v>
+        <v>57.790724833259802</v>
       </c>
       <c r="L6" s="8">
-        <v>3.9267014455367639</v>
+        <v>3.6086695469845531</v>
       </c>
       <c r="M6" s="8">
-        <v>0.64589572574157217</v>
+        <v>0.57790724833259799</v>
       </c>
       <c r="N6" s="8">
-        <v>0.57153481980056231</v>
+        <v>0.5486090382936496</v>
       </c>
       <c r="P6" t="s">
         <v>7</v>
@@ -966,7 +962,7 @@
         <v>75.26324892756729</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -986,16 +982,16 @@
         <v>8</v>
       </c>
       <c r="K7" s="8">
-        <v>63.920881668526548</v>
+        <v>58.44998659157951</v>
       </c>
       <c r="L7" s="8">
-        <v>3.216885529190828</v>
+        <v>2.9285298990726458</v>
       </c>
       <c r="M7" s="8">
-        <v>0.63920881668526541</v>
+        <v>0.58449986591579506</v>
       </c>
       <c r="N7" s="8">
-        <v>0.54785880821483446</v>
+        <v>0.49033425993475999</v>
       </c>
       <c r="P7" t="s">
         <v>8</v>
@@ -1013,7 +1009,7 @@
         <v>57.291321993395329</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -1033,16 +1029,16 @@
         <v>9</v>
       </c>
       <c r="K8" s="8">
-        <v>78.63208159240132</v>
+        <v>76.768657168314604</v>
       </c>
       <c r="L8" s="8">
-        <v>0.5802121455300191</v>
+        <v>0.72285368550053908</v>
       </c>
       <c r="M8" s="8">
-        <v>0.78632081592401315</v>
+        <v>0.76768657168314602</v>
       </c>
       <c r="N8" s="8">
-        <v>0.76166310912668456</v>
+        <v>0.72089552922937938</v>
       </c>
       <c r="P8" t="s">
         <v>9</v>
@@ -1060,7 +1056,7 @@
         <v>79.785343764156437</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -1080,16 +1076,16 @@
         <v>10</v>
       </c>
       <c r="K9" s="8">
-        <v>92.399242207977579</v>
+        <v>88.525073746312685</v>
       </c>
       <c r="L9" s="8">
-        <v>0.17278191050025951</v>
+        <v>0.36779842183239758</v>
       </c>
       <c r="M9" s="8">
-        <v>0.92399242207977572</v>
+        <v>0.88525073746312688</v>
       </c>
       <c r="N9" s="8">
-        <v>0.91120313135670228</v>
+        <v>0.8694287562828823</v>
       </c>
       <c r="P9" t="s">
         <v>10</v>
@@ -1107,7 +1103,7 @@
         <v>76.317947311436654</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -1127,16 +1123,16 @@
         <v>11</v>
       </c>
       <c r="K10" s="8">
-        <v>89.88425505410946</v>
+        <v>87.051704599520761</v>
       </c>
       <c r="L10" s="8">
-        <v>0.63921627101865375</v>
+        <v>0.65729704059367577</v>
       </c>
       <c r="M10" s="8">
-        <v>0.89884255054109463</v>
+        <v>0.87051704599520752</v>
       </c>
       <c r="N10" s="8">
-        <v>0.88653369181180075</v>
+        <v>0.8621119923458116</v>
       </c>
       <c r="P10" t="s">
         <v>11</v>
@@ -1154,7 +1150,7 @@
         <v>69.029518820101742</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -1174,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="K11" s="8">
-        <v>77.593491293177266</v>
+        <v>82.991029334163798</v>
       </c>
       <c r="L11" s="8">
-        <v>1.664128722349421</v>
+        <v>1.4171465479456851</v>
       </c>
       <c r="M11" s="8">
-        <v>0.77593491293177275</v>
+        <v>0.82991029334163779</v>
       </c>
       <c r="N11" s="8">
-        <v>0.74616683718277954</v>
+        <v>0.8044249011439224</v>
       </c>
       <c r="P11" t="s">
         <v>12</v>
@@ -1201,7 +1197,7 @@
         <v>69.893334814289034</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -1221,16 +1217,16 @@
         <v>13</v>
       </c>
       <c r="K12" s="8">
-        <v>90.766961651917399</v>
+        <v>92.005899705014741</v>
       </c>
       <c r="L12" s="8">
-        <v>1.1934156643278639</v>
+        <v>0.59398074189425176</v>
       </c>
       <c r="M12" s="8">
-        <v>0.90766961651917399</v>
+        <v>0.9200589970501476</v>
       </c>
       <c r="N12" s="8">
-        <v>0.88896913614993489</v>
+        <v>0.89693940785430615</v>
       </c>
       <c r="P12" t="s">
         <v>13</v>
@@ -1248,7 +1244,7 @@
         <v>90.395860843891569</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -1268,16 +1264,16 @@
         <v>14</v>
       </c>
       <c r="K13" s="8">
-        <v>81.626225140355885</v>
+        <v>97.084663362139821</v>
       </c>
       <c r="L13" s="8">
-        <v>1.5079924050397009</v>
+        <v>0.1043122812407995</v>
       </c>
       <c r="M13" s="8">
-        <v>0.81626225140355879</v>
+        <v>0.97084663362139811</v>
       </c>
       <c r="N13" s="8">
-        <v>0.78363444500978685</v>
+        <v>0.96976980565081861</v>
       </c>
       <c r="P13" t="s">
         <v>14</v>
@@ -1295,7 +1291,7 @@
         <v>91.164542255988948</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -1315,16 +1311,16 @@
         <v>15</v>
       </c>
       <c r="K14" s="8">
-        <v>88.018840993434196</v>
+        <v>85.752212389380531</v>
       </c>
       <c r="L14" s="8">
-        <v>0.34464827413724108</v>
+        <v>0.36344424107910528</v>
       </c>
       <c r="M14" s="8">
-        <v>0.880188409934342</v>
+        <v>0.85752212389380522</v>
       </c>
       <c r="N14" s="8">
-        <v>0.8740351757070316</v>
+        <v>0.85407166811842306</v>
       </c>
       <c r="P14" t="s">
         <v>15</v>
@@ -1342,7 +1338,7 @@
         <v>89.897183668401183</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -1362,16 +1358,16 @@
         <v>16</v>
       </c>
       <c r="K15" s="8">
-        <v>99.026548672566378</v>
+        <v>97.079646017699105</v>
       </c>
       <c r="L15" s="8">
-        <v>2.7820881923010649E-2</v>
+        <v>0.11985175796738</v>
       </c>
       <c r="M15" s="8">
-        <v>0.99026548672566361</v>
+        <v>0.97079646017699106</v>
       </c>
       <c r="N15" s="8">
-        <v>0.99025179770843397</v>
+        <v>0.97065802030624515</v>
       </c>
       <c r="P15" t="s">
         <v>16</v>
@@ -1389,7 +1385,7 @@
         <v>88.170669936607496</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -1409,16 +1405,16 @@
         <v>17</v>
       </c>
       <c r="K16" s="8">
-        <v>90.766961651917399</v>
+        <v>96.78466076696165</v>
       </c>
       <c r="L16" s="8">
-        <v>0.59265368160198384</v>
+        <v>0.11812408890397499</v>
       </c>
       <c r="M16" s="8">
-        <v>0.90766961651917411</v>
+        <v>0.96784660766961661</v>
       </c>
       <c r="N16" s="8">
-        <v>0.89174637873378992</v>
+        <v>0.96774136915207865</v>
       </c>
       <c r="P16" t="s">
         <v>17</v>
@@ -1436,7 +1432,7 @@
         <v>83.875257401417997</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -1456,16 +1452,16 @@
         <v>18</v>
       </c>
       <c r="K17" s="8">
-        <v>90.738847221861789</v>
+        <v>84.612929177588043</v>
       </c>
       <c r="L17" s="8">
-        <v>0.51143569193166771</v>
+        <v>1.586359600078477</v>
       </c>
       <c r="M17" s="8">
-        <v>0.90738847221861785</v>
+        <v>0.84612929177588048</v>
       </c>
       <c r="N17" s="8">
-        <v>0.88613703069729266</v>
+        <v>0.8092552447390251</v>
       </c>
       <c r="P17" t="s">
         <v>18</v>
@@ -1483,7 +1479,7 @@
         <v>90.592271507422055</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -1503,16 +1499,16 @@
         <v>19</v>
       </c>
       <c r="K18" s="8">
-        <v>88.997050147492615</v>
+        <v>84.660766961651916</v>
       </c>
       <c r="L18" s="8">
-        <v>0.62369154266155302</v>
+        <v>0.53764324821815923</v>
       </c>
       <c r="M18" s="8">
-        <v>0.88997050147492618</v>
+        <v>0.84660766961651923</v>
       </c>
       <c r="N18" s="8">
-        <v>0.88229350819475028</v>
+        <v>0.85253863018511122</v>
       </c>
       <c r="P18" t="s">
         <v>19</v>
@@ -1530,7 +1526,7 @@
         <v>80.036110705999434</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -1550,16 +1546,16 @@
         <v>20</v>
       </c>
       <c r="K19" s="8">
-        <v>87.551622418879063</v>
+        <v>81.56342182890856</v>
       </c>
       <c r="L19" s="8">
-        <v>3.6431985116711818</v>
+        <v>2.673967352130985</v>
       </c>
       <c r="M19" s="8">
-        <v>0.8755162241887906</v>
+        <v>0.81563421828908544</v>
       </c>
       <c r="N19" s="8">
-        <v>0.86464030956539406</v>
+        <v>0.80265486655568752</v>
       </c>
       <c r="P19" t="s">
         <v>20</v>
@@ -1577,7 +1573,7 @@
         <v>74.653435516446152</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -1597,16 +1593,16 @@
         <v>21</v>
       </c>
       <c r="K20" s="8">
-        <v>85.315876434917257</v>
+        <v>89.705014749262531</v>
       </c>
       <c r="L20" s="8">
-        <v>0.82393305716929333</v>
+        <v>0.24808138670413241</v>
       </c>
       <c r="M20" s="8">
-        <v>0.85315876434917259</v>
+        <v>0.89705014749262535</v>
       </c>
       <c r="N20" s="8">
-        <v>0.81066124954637853</v>
+        <v>0.89300540766582803</v>
       </c>
       <c r="P20" t="s">
         <v>21</v>
@@ -1624,7 +1620,7 @@
         <v>86.973352565465078</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -1644,16 +1640,16 @@
         <v>22</v>
       </c>
       <c r="K21" s="8">
-        <v>76.22834107561485</v>
+        <v>86.454035069507512</v>
       </c>
       <c r="L21" s="8">
-        <v>1.409849694166166</v>
+        <v>1.299892781304117</v>
       </c>
       <c r="M21" s="8">
-        <v>0.76228341075614847</v>
+        <v>0.86454035069507518</v>
       </c>
       <c r="N21" s="8">
-        <v>0.72007710262708335</v>
+        <v>0.83814826198241266</v>
       </c>
       <c r="P21" t="s">
         <v>22</v>
@@ -1671,7 +1667,7 @@
         <v>73.773521175258765</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>23</v>
       </c>
@@ -1691,16 +1687,16 @@
         <v>23</v>
       </c>
       <c r="K22" s="8">
-        <v>91.541881850189014</v>
+        <v>58.736580766269597</v>
       </c>
       <c r="L22" s="8">
-        <v>1.8810794552203001</v>
+        <v>5.8269017250944746</v>
       </c>
       <c r="M22" s="8">
-        <v>0.91541881850189011</v>
+        <v>0.58736580766269608</v>
       </c>
       <c r="N22" s="8">
-        <v>0.89545183875845102</v>
+        <v>0.5109338215231275</v>
       </c>
       <c r="P22" t="s">
         <v>23</v>
@@ -1718,7 +1714,7 @@
         <v>72.809715999351482</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -1738,16 +1734,16 @@
         <v>24</v>
       </c>
       <c r="K23" s="8">
-        <v>99.560117302052788</v>
+        <v>98.790560471976406</v>
       </c>
       <c r="L23" s="8">
-        <v>8.7655820389002485E-3</v>
+        <v>2.6841655808057339E-2</v>
       </c>
       <c r="M23" s="8">
-        <v>0.99560117302052797</v>
+        <v>0.98790560471976396</v>
       </c>
       <c r="N23" s="8">
-        <v>0.99558650085299383</v>
+        <v>0.98787316976916595</v>
       </c>
       <c r="P23" t="s">
         <v>24</v>
@@ -1765,7 +1761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>25</v>
       </c>
@@ -1785,16 +1781,16 @@
         <v>25</v>
       </c>
       <c r="K24" s="8">
-        <v>83.748302320954338</v>
+        <v>78.134239915570205</v>
       </c>
       <c r="L24" s="8">
-        <v>0.80670100606280692</v>
+        <v>3.5876125732677151</v>
       </c>
       <c r="M24" s="8">
-        <v>0.83748302320954338</v>
+        <v>0.78134239915570203</v>
       </c>
       <c r="N24" s="8">
-        <v>0.82132560654561537</v>
+        <v>0.75421918637701602</v>
       </c>
       <c r="P24" t="s">
         <v>25</v>
@@ -1812,7 +1808,7 @@
         <v>66.958862992069086</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>26</v>
       </c>
@@ -1832,16 +1828,16 @@
         <v>26</v>
       </c>
       <c r="K25" s="8">
-        <v>93.834808259587021</v>
+        <v>85.309734513274336</v>
       </c>
       <c r="L25" s="8">
-        <v>0.75802197225813184</v>
+        <v>0.54961810198816274</v>
       </c>
       <c r="M25" s="8">
-        <v>0.93834808259587033</v>
+        <v>0.85309734513274338</v>
       </c>
       <c r="N25" s="8">
-        <v>0.91841301563189115</v>
+        <v>0.85130289677502646</v>
       </c>
       <c r="P25" t="s">
         <v>26</v>
@@ -1859,7 +1855,7 @@
         <v>87.353028081574934</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -1879,16 +1875,16 @@
         <v>27</v>
       </c>
       <c r="K26" s="8">
-        <v>92.991461863856955</v>
+        <v>86.208185191913429</v>
       </c>
       <c r="L26" s="8">
-        <v>0.2219031035034075</v>
+        <v>0.48987193918679728</v>
       </c>
       <c r="M26" s="8">
-        <v>0.9299146186385695</v>
+        <v>0.86208185191913422</v>
       </c>
       <c r="N26" s="8">
-        <v>0.92944587631389397</v>
+        <v>0.85390367605165074</v>
       </c>
       <c r="P26" t="s">
         <v>27</v>
@@ -1906,7 +1902,7 @@
         <v>78.542227366307671</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -1926,16 +1922,16 @@
         <v>28</v>
       </c>
       <c r="K27" s="8">
-        <v>95.929203539823021</v>
+        <v>97.846607669616517</v>
       </c>
       <c r="L27" s="8">
-        <v>0.29089398048680859</v>
+        <v>9.1258204640966997E-2</v>
       </c>
       <c r="M27" s="8">
-        <v>0.95929203539823005</v>
+        <v>0.97846607669616525</v>
       </c>
       <c r="N27" s="8">
-        <v>0.95578237337581518</v>
+        <v>0.97699452203334636</v>
       </c>
       <c r="P27" t="s">
         <v>28</v>
@@ -1953,7 +1949,7 @@
         <v>94.972772462584018</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
         <v>29</v>
       </c>
@@ -1973,16 +1969,16 @@
         <v>29</v>
       </c>
       <c r="K28" s="8">
-        <v>86.730335037500325</v>
+        <v>90.425609218072822</v>
       </c>
       <c r="L28" s="8">
-        <v>1.793797566059534</v>
+        <v>0.23065192296822659</v>
       </c>
       <c r="M28" s="8">
-        <v>0.86730335037500317</v>
+        <v>0.90425609218072833</v>
       </c>
       <c r="N28" s="8">
-        <v>0.83919314102607356</v>
+        <v>0.90309144775565486</v>
       </c>
       <c r="P28" t="s">
         <v>29</v>
@@ -2000,7 +1996,7 @@
         <v>88.915262572797999</v>
       </c>
     </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
         <v>30</v>
       </c>
@@ -2020,16 +2016,16 @@
         <v>30</v>
       </c>
       <c r="K29" s="8">
-        <v>88.820058997050154</v>
+        <v>91.091445427728615</v>
       </c>
       <c r="L29" s="8">
-        <v>1.0805719954556781</v>
+        <v>1.2464008948682439</v>
       </c>
       <c r="M29" s="8">
-        <v>0.88820058997050144</v>
+        <v>0.91091445427728623</v>
       </c>
       <c r="N29" s="8">
-        <v>0.86170705368808209</v>
+        <v>0.8889141186524252</v>
       </c>
       <c r="P29" t="s">
         <v>30</v>
@@ -2047,7 +2043,7 @@
         <v>87.58571916549279</v>
       </c>
     </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -2067,16 +2063,16 @@
         <v>31</v>
       </c>
       <c r="K30" s="8">
-        <v>86.914938710542486</v>
+        <v>91.681415929203538</v>
       </c>
       <c r="L30" s="8">
-        <v>1.6060459701251419</v>
+        <v>0.2417596357319112</v>
       </c>
       <c r="M30" s="8">
-        <v>0.86914938710542489</v>
+        <v>0.91681415929203536</v>
       </c>
       <c r="N30" s="8">
-        <v>0.84082992652138877</v>
+        <v>0.90934938709575519</v>
       </c>
       <c r="P30" t="s">
         <v>31</v>
@@ -2094,7 +2090,7 @@
         <v>92.282690652554024</v>
       </c>
     </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
         <v>32</v>
       </c>
@@ -2114,16 +2110,16 @@
         <v>32</v>
       </c>
       <c r="K31" s="8">
-        <v>92.83185840707965</v>
+        <v>88.41382710923105</v>
       </c>
       <c r="L31" s="8">
-        <v>0.60092102970542383</v>
+        <v>0.49855456711373453</v>
       </c>
       <c r="M31" s="8">
-        <v>0.92831858407079648</v>
+        <v>0.88413827109231047</v>
       </c>
       <c r="N31" s="8">
-        <v>0.90621397649265278</v>
+        <v>0.8795031241967457</v>
       </c>
       <c r="P31" t="s">
         <v>32</v>
@@ -2141,7 +2137,7 @@
         <v>78.631727439603424</v>
       </c>
     </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -2161,16 +2157,16 @@
         <v>33</v>
       </c>
       <c r="K32" s="8">
-        <v>90.707964601769916</v>
+        <v>87.217017448247816</v>
       </c>
       <c r="L32" s="8">
-        <v>0.1987806662120927</v>
+        <v>0.23809220562867689</v>
       </c>
       <c r="M32" s="8">
-        <v>0.90707964601769908</v>
+        <v>0.87217017448247824</v>
       </c>
       <c r="N32" s="8">
-        <v>0.90183075571327431</v>
+        <v>0.8666884252270014</v>
       </c>
       <c r="P32" t="s">
         <v>33</v>
@@ -2188,7 +2184,7 @@
         <v>83.149675030348476</v>
       </c>
     </row>
-    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
         <v>34</v>
       </c>
@@ -2208,16 +2204,16 @@
         <v>34</v>
       </c>
       <c r="K33" s="8">
-        <v>87.60188236922464</v>
+        <v>85.168816339241687</v>
       </c>
       <c r="L33" s="8">
-        <v>0.41298161009641848</v>
+        <v>0.98842016838233815</v>
       </c>
       <c r="M33" s="8">
-        <v>0.87601882369224648</v>
+        <v>0.85168816339241682</v>
       </c>
       <c r="N33" s="8">
-        <v>0.86650492403300494</v>
+        <v>0.81647369726212859</v>
       </c>
       <c r="P33" t="s">
         <v>34</v>
@@ -2235,7 +2231,7 @@
         <v>88.651916301980719</v>
       </c>
     </row>
-    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>35</v>
       </c>
@@ -2255,16 +2251,16 @@
         <v>35</v>
       </c>
       <c r="K34" s="8">
-        <v>94.100294985250741</v>
+        <v>97.050147492625371</v>
       </c>
       <c r="L34" s="8">
-        <v>0.22058012043026259</v>
+        <v>0.13572083493358961</v>
       </c>
       <c r="M34" s="8">
-        <v>0.94100294985250732</v>
+        <v>0.97050147492625372</v>
       </c>
       <c r="N34" s="8">
-        <v>0.92502107715174375</v>
+        <v>0.96999405522929671</v>
       </c>
       <c r="P34" t="s">
         <v>35</v>
@@ -2282,7 +2278,7 @@
         <v>88.977412391637387</v>
       </c>
     </row>
-    <row r="35" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
         <v>36</v>
       </c>
@@ -2302,16 +2298,16 @@
         <v>36</v>
       </c>
       <c r="K35" s="8">
-        <v>96.154378498083901</v>
+        <v>91.497763821486345</v>
       </c>
       <c r="L35" s="8">
-        <v>8.852824691258257E-2</v>
+        <v>0.363323822275125</v>
       </c>
       <c r="M35" s="8">
-        <v>0.96154378498083892</v>
+        <v>0.91497763821486333</v>
       </c>
       <c r="N35" s="8">
-        <v>0.95937285686603668</v>
+        <v>0.9119385908707901</v>
       </c>
       <c r="P35" t="s">
         <v>36</v>
@@ -2329,7 +2325,7 @@
         <v>88.646902843499149</v>
       </c>
     </row>
-    <row r="36" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -2349,16 +2345,16 @@
         <v>37</v>
       </c>
       <c r="K36" s="8">
-        <v>92.212389380530979</v>
+        <v>97.227138643067846</v>
       </c>
       <c r="L36" s="8">
-        <v>0.6533009167574837</v>
+        <v>0.13275066705462921</v>
       </c>
       <c r="M36" s="8">
-        <v>0.92212389380530979</v>
+        <v>0.97227138643067845</v>
       </c>
       <c r="N36" s="8">
-        <v>0.89915841485071846</v>
+        <v>0.97121306803995222</v>
       </c>
       <c r="P36" t="s">
         <v>37</v>
@@ -2376,7 +2372,7 @@
         <v>94.069302341721482</v>
       </c>
     </row>
-    <row r="37" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -2396,16 +2392,16 @@
         <v>38</v>
       </c>
       <c r="K37" s="8">
-        <v>87.571172761010047</v>
+        <v>92.4392944575645</v>
       </c>
       <c r="L37" s="8">
-        <v>0.22505862284056019</v>
+        <v>0.19153852670998689</v>
       </c>
       <c r="M37" s="8">
-        <v>0.87571172761010041</v>
+        <v>0.92439294457564514</v>
       </c>
       <c r="N37" s="8">
-        <v>0.8598371110752504</v>
+        <v>0.92304649043758358</v>
       </c>
       <c r="P37" t="s">
         <v>38</v>
@@ -2423,7 +2419,7 @@
         <v>78.783473634472372</v>
       </c>
     </row>
-    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
         <v>39</v>
       </c>
@@ -2443,16 +2439,16 @@
         <v>39</v>
       </c>
       <c r="K38" s="8">
-        <v>82.713864306784657</v>
+        <v>78.053097345132741</v>
       </c>
       <c r="L38" s="8">
-        <v>1.3785461415674041</v>
+        <v>1.6557666355309519</v>
       </c>
       <c r="M38" s="8">
-        <v>0.82713864306784668</v>
+        <v>0.78053097345132749</v>
       </c>
       <c r="N38" s="8">
-        <v>0.78452538482848688</v>
+        <v>0.72871638303877861</v>
       </c>
       <c r="P38" t="s">
         <v>39</v>
@@ -2470,7 +2466,7 @@
         <v>85.307716149220184</v>
       </c>
     </row>
-    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -2490,16 +2486,16 @@
         <v>40</v>
       </c>
       <c r="K39" s="8">
-        <v>85.34944073910674</v>
+        <v>90.06851270339709</v>
       </c>
       <c r="L39" s="8">
-        <v>2.7066565693632532</v>
+        <v>0.44263778917302232</v>
       </c>
       <c r="M39" s="8">
-        <v>0.85349440739106741</v>
+        <v>0.90068512703397086</v>
       </c>
       <c r="N39" s="8">
-        <v>0.83277986702616913</v>
+        <v>0.89673607808145017</v>
       </c>
       <c r="P39" t="s">
         <v>40</v>
@@ -2517,7 +2513,7 @@
         <v>89.847357880326129</v>
       </c>
     </row>
-    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>41</v>
       </c>
@@ -2537,16 +2533,16 @@
         <v>41</v>
       </c>
       <c r="K40" s="8">
-        <v>89.764011799410028</v>
+        <v>91.681415929203538</v>
       </c>
       <c r="L40" s="8">
-        <v>0.36575716652249313</v>
+        <v>0.17627057132306151</v>
       </c>
       <c r="M40" s="8">
-        <v>0.89764011799410037</v>
+        <v>0.91681415929203536</v>
       </c>
       <c r="N40" s="8">
-        <v>0.88132402864253367</v>
+        <v>0.91644615608725744</v>
       </c>
       <c r="P40" t="s">
         <v>41</v>
@@ -2564,7 +2560,7 @@
         <v>86.885775627731263</v>
       </c>
     </row>
-    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -2584,16 +2580,16 @@
         <v>42</v>
       </c>
       <c r="K41" s="8">
-        <v>97.52350798882344</v>
+        <v>99.174041297935105</v>
       </c>
       <c r="L41" s="8">
-        <v>0.11094616441626209</v>
+        <v>1.993839788912008E-2</v>
       </c>
       <c r="M41" s="8">
-        <v>0.97523507988823432</v>
+        <v>0.991740412979351</v>
       </c>
       <c r="N41" s="8">
-        <v>0.97464115686648589</v>
+        <v>0.99170493840323604</v>
       </c>
       <c r="P41" t="s">
         <v>42</v>
@@ -2611,7 +2607,7 @@
         <v>98.487658949112543</v>
       </c>
     </row>
-    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -2631,16 +2627,16 @@
         <v>43</v>
       </c>
       <c r="K42" s="8">
-        <v>90.896374536111907</v>
+        <v>95.87020648967551</v>
       </c>
       <c r="L42" s="8">
-        <v>0.45573697073397512</v>
+        <v>0.10686971986188661</v>
       </c>
       <c r="M42" s="8">
-        <v>0.9089637453611189</v>
+        <v>0.95870206489675525</v>
       </c>
       <c r="N42" s="8">
-        <v>0.90518330879124265</v>
+        <v>0.95483011555476449</v>
       </c>
       <c r="P42" t="s">
         <v>43</v>
@@ -2658,7 +2654,7 @@
         <v>94.380589468614772</v>
       </c>
     </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
         <v>44</v>
       </c>
@@ -2678,16 +2674,16 @@
         <v>44</v>
       </c>
       <c r="K43" s="8">
-        <v>89.210633309976728</v>
+        <v>93.307468057682158</v>
       </c>
       <c r="L43" s="8">
-        <v>0.72281917822718555</v>
+        <v>0.1305816462137343</v>
       </c>
       <c r="M43" s="8">
-        <v>0.89210633309976717</v>
+        <v>0.93307468057682164</v>
       </c>
       <c r="N43" s="8">
-        <v>0.87254836770010724</v>
+        <v>0.93299826132848107</v>
       </c>
       <c r="P43" t="s">
         <v>44</v>
@@ -2705,7 +2701,7 @@
         <v>82.529167667392912</v>
       </c>
     </row>
-    <row r="44" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -2725,16 +2721,16 @@
         <v>45</v>
       </c>
       <c r="K44" s="8">
-        <v>82.123893805309734</v>
+        <v>88.967551622418881</v>
       </c>
       <c r="L44" s="8">
-        <v>1.3325299556028121</v>
+        <v>1.2215524554382149</v>
       </c>
       <c r="M44" s="8">
-        <v>0.82123893805309733</v>
+        <v>0.88967551622418883</v>
       </c>
       <c r="N44" s="8">
-        <v>0.80643446178243272</v>
+        <v>0.8767814528594593</v>
       </c>
       <c r="P44" t="s">
         <v>45</v>
@@ -2752,7 +2748,7 @@
         <v>68.092085332951442</v>
       </c>
     </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
         <v>46</v>
       </c>
@@ -2772,16 +2768,16 @@
         <v>46</v>
       </c>
       <c r="K45" s="8">
-        <v>89.056047197640126</v>
+        <v>74.928416335781463</v>
       </c>
       <c r="L45" s="8">
-        <v>0.58817901381992033</v>
+        <v>2.1905995884599632</v>
       </c>
       <c r="M45" s="8">
-        <v>0.8905604719764012</v>
+        <v>0.74928416335781445</v>
       </c>
       <c r="N45" s="8">
-        <v>0.87939925261100405</v>
+        <v>0.70483010387193878</v>
       </c>
       <c r="P45" t="s">
         <v>46</v>
@@ -2799,7 +2795,7 @@
         <v>84.110616059208709</v>
       </c>
     </row>
-    <row r="46" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D46" t="s">
         <v>47</v>
       </c>
@@ -2819,16 +2815,16 @@
         <v>47</v>
       </c>
       <c r="K46" s="8">
-        <v>98.141592920353986</v>
+        <v>97.411915327987259</v>
       </c>
       <c r="L46" s="8">
-        <v>4.2201614817604538E-2</v>
+        <v>9.0725280249881038E-2</v>
       </c>
       <c r="M46" s="8">
-        <v>0.98141592920353982</v>
+        <v>0.97411915327987264</v>
       </c>
       <c r="N46" s="8">
-        <v>0.98140531212908821</v>
+        <v>0.97400611492202849</v>
       </c>
       <c r="P46" t="s">
         <v>47</v>
@@ -2846,7 +2842,7 @@
         <v>97.336974163751648</v>
       </c>
     </row>
-    <row r="47" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D47" t="s">
         <v>48</v>
       </c>
@@ -2866,16 +2862,16 @@
         <v>48</v>
       </c>
       <c r="K47" s="8">
-        <v>95.995294076938379</v>
+        <v>96.489675516224196</v>
       </c>
       <c r="L47" s="8">
-        <v>0.2524749887980941</v>
+        <v>0.1169444791657933</v>
       </c>
       <c r="M47" s="8">
-        <v>0.95995294076938387</v>
+        <v>0.96489675516224194</v>
       </c>
       <c r="N47" s="8">
-        <v>0.95875360642253915</v>
+        <v>0.96392980212574331</v>
       </c>
       <c r="P47" t="s">
         <v>48</v>
@@ -2893,7 +2889,7 @@
         <v>90.357296908914194</v>
       </c>
     </row>
-    <row r="48" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D48" t="s">
         <v>49</v>
       </c>
@@ -2913,16 +2909,16 @@
         <v>49</v>
       </c>
       <c r="K48" s="8">
-        <v>93.607038123167143</v>
+        <v>92.931513248384505</v>
       </c>
       <c r="L48" s="8">
-        <v>0.4664436414325655</v>
+        <v>0.50113995533333666</v>
       </c>
       <c r="M48" s="8">
-        <v>0.93607038123167163</v>
+        <v>0.9293151324838449</v>
       </c>
       <c r="N48" s="8">
-        <v>0.91937477549163482</v>
+        <v>0.90725235809754601</v>
       </c>
       <c r="P48" t="s">
         <v>49</v>
@@ -2940,7 +2936,7 @@
         <v>93.752827810173386</v>
       </c>
     </row>
-    <row r="49" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
         <v>50</v>
       </c>
@@ -2953,11 +2949,8 @@
       </c>
       <c r="K49" s="8">
         <f>AVERAGE(K4:K48)</f>
-        <v>87.351330413277338</v>
-      </c>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
+        <v>87.032083130284661</v>
+      </c>
       <c r="P49" t="s">
         <v>50</v>
       </c>
@@ -2966,16 +2959,16 @@
         <v>85.284382506192415</v>
       </c>
     </row>
-    <row r="51" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D51" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
       <c r="J51" s="8" t="s">
         <v>51</v>
       </c>
@@ -2988,14 +2981,14 @@
       <c r="P51" t="s">
         <v>51</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="Q51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-    </row>
-    <row r="52" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D52" t="s">
         <v>57</v>
       </c>
@@ -3005,10 +2998,10 @@
       <c r="F52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H52" s="4"/>
+      <c r="H52" s="6"/>
       <c r="J52" s="8" t="s">
         <v>57</v>
       </c>
@@ -3031,12 +3024,12 @@
       <c r="R52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S52" s="4" t="s">
+      <c r="S52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="T52" s="4"/>
-    </row>
-    <row r="53" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
         <v>5</v>
       </c>
@@ -3103,16 +3096,16 @@
         <v>5</v>
       </c>
       <c r="K54" s="8">
-        <v>69.334163790344206</v>
+        <v>78.295919514874697</v>
       </c>
       <c r="L54" s="8">
-        <v>3.5440559563146339</v>
+        <v>0.93325233092490634</v>
       </c>
       <c r="M54" s="8">
-        <v>0.69334163790344205</v>
+        <v>0.78295919514874701</v>
       </c>
       <c r="N54" s="8">
-        <v>0.63714181815135984</v>
+        <v>0.7478492274846007</v>
       </c>
       <c r="P54" t="s">
         <v>5</v>
@@ -3130,7 +3123,7 @@
         <v>71.276239540917416</v>
       </c>
     </row>
-    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
         <v>6</v>
       </c>
@@ -3150,16 +3143,16 @@
         <v>6</v>
       </c>
       <c r="K55" s="8">
-        <v>86.661735828164609</v>
+        <v>72.397771607020815</v>
       </c>
       <c r="L55" s="8">
-        <v>0.42879448645162482</v>
+        <v>3.3296329673152338</v>
       </c>
       <c r="M55" s="8">
-        <v>0.8666173582816461</v>
+        <v>0.72397771607020822</v>
       </c>
       <c r="N55" s="8">
-        <v>0.85685895995828754</v>
+        <v>0.68288196430412496</v>
       </c>
       <c r="P55" t="s">
         <v>6</v>
@@ -3177,7 +3170,7 @@
         <v>61.833267738032042</v>
       </c>
     </row>
-    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D56" t="s">
         <v>7</v>
       </c>
@@ -3197,16 +3190,16 @@
         <v>7</v>
       </c>
       <c r="K56" s="8">
-        <v>67.368835370548183</v>
+        <v>83.869843164733254</v>
       </c>
       <c r="L56" s="8">
-        <v>3.7828680632754801</v>
+        <v>2.5485845331439121</v>
       </c>
       <c r="M56" s="8">
-        <v>0.67368835370548186</v>
+        <v>0.8386984316473326</v>
       </c>
       <c r="N56" s="8">
-        <v>0.63136375192844274</v>
+        <v>0.81692782803688146</v>
       </c>
       <c r="P56" t="s">
         <v>7</v>
@@ -3224,7 +3217,7 @@
         <v>73.345866452666854</v>
       </c>
     </row>
-    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D57" t="s">
         <v>8</v>
       </c>
@@ -3244,16 +3237,16 @@
         <v>8</v>
       </c>
       <c r="K57" s="8">
-        <v>72.391716191316533</v>
+        <v>70.48062699504321</v>
       </c>
       <c r="L57" s="8">
-        <v>1.9054704508723559</v>
+        <v>2.431444767938304</v>
       </c>
       <c r="M57" s="8">
-        <v>0.72391716191316535</v>
+        <v>0.70480626995043205</v>
       </c>
       <c r="N57" s="8">
-        <v>0.67481755069635696</v>
+        <v>0.66827961964577764</v>
       </c>
       <c r="P57" t="s">
         <v>8</v>
@@ -3271,7 +3264,7 @@
         <v>50.339305922289363</v>
       </c>
     </row>
-    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D58" t="s">
         <v>9</v>
       </c>
@@ -3291,16 +3284,16 @@
         <v>9</v>
       </c>
       <c r="K58" s="8">
-        <v>95.408783813008768</v>
+        <v>70.097319180961762</v>
       </c>
       <c r="L58" s="8">
-        <v>8.9184188710328266E-2</v>
+        <v>5.7989699969058766</v>
       </c>
       <c r="M58" s="8">
-        <v>0.95408783813008768</v>
+        <v>0.7009731918096177</v>
       </c>
       <c r="N58" s="8">
-        <v>0.95344126421503772</v>
+        <v>0.64759869856771135</v>
       </c>
       <c r="P58" t="s">
         <v>9</v>
@@ -3318,7 +3311,7 @@
         <v>90.696579869967991</v>
       </c>
     </row>
-    <row r="59" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
         <v>10</v>
       </c>
@@ -3338,16 +3331,16 @@
         <v>10</v>
       </c>
       <c r="K59" s="8">
-        <v>78.768501457625064</v>
+        <v>90.26548672566372</v>
       </c>
       <c r="L59" s="8">
-        <v>0.68727363515556406</v>
+        <v>0.43167719871766702</v>
       </c>
       <c r="M59" s="8">
-        <v>0.78768501457625062</v>
+        <v>0.90265486725663724</v>
       </c>
       <c r="N59" s="8">
-        <v>0.77375853547537043</v>
+        <v>0.89647890312300405</v>
       </c>
       <c r="P59" t="s">
         <v>10</v>
@@ -3365,7 +3358,7 @@
         <v>82.037979206714084</v>
       </c>
     </row>
-    <row r="60" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
         <v>11</v>
       </c>
@@ -3385,16 +3378,16 @@
         <v>11</v>
       </c>
       <c r="K60" s="8">
-        <v>84.524520108305438</v>
+        <v>83.524511457711569</v>
       </c>
       <c r="L60" s="8">
-        <v>0.84659170485048507</v>
+        <v>1.172241434686081</v>
       </c>
       <c r="M60" s="8">
-        <v>0.84524520108305423</v>
+        <v>0.8352451145771157</v>
       </c>
       <c r="N60" s="8">
-        <v>0.81716811050458793</v>
+        <v>0.81312618978583173</v>
       </c>
       <c r="P60" t="s">
         <v>11</v>
@@ -3412,7 +3405,7 @@
         <v>79.957097705774729</v>
       </c>
     </row>
-    <row r="61" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D61" t="s">
         <v>12</v>
       </c>
@@ -3432,16 +3425,16 @@
         <v>12</v>
       </c>
       <c r="K61" s="8">
-        <v>73.286187596778518</v>
+        <v>87.640550523793451</v>
       </c>
       <c r="L61" s="8">
-        <v>3.0876943308103919</v>
+        <v>0.74014064790850764</v>
       </c>
       <c r="M61" s="8">
-        <v>0.73286187596778518</v>
+        <v>0.87640550523793459</v>
       </c>
       <c r="N61" s="8">
-        <v>0.68201507077878698</v>
+        <v>0.86623717196338712</v>
       </c>
       <c r="P61" t="s">
         <v>12</v>
@@ -3459,7 +3452,7 @@
         <v>76.898633088749108</v>
       </c>
     </row>
-    <row r="62" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D62" t="s">
         <v>13</v>
       </c>
@@ -3479,16 +3472,16 @@
         <v>13</v>
       </c>
       <c r="K62" s="8">
-        <v>91.533923303834811</v>
+        <v>92.182890855457231</v>
       </c>
       <c r="L62" s="8">
-        <v>0.58693700457932696</v>
+        <v>0.57846967218804779</v>
       </c>
       <c r="M62" s="8">
-        <v>0.91533923303834808</v>
+        <v>0.92182890855457222</v>
       </c>
       <c r="N62" s="8">
-        <v>0.89242770878623501</v>
+        <v>0.89864686408797156</v>
       </c>
       <c r="P62" t="s">
         <v>13</v>
@@ -3506,7 +3499,7 @@
         <v>90.740848967721149</v>
       </c>
     </row>
-    <row r="63" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D63" t="s">
         <v>14</v>
       </c>
@@ -3526,16 +3519,16 @@
         <v>14</v>
       </c>
       <c r="K63" s="8">
-        <v>94.601769911504419</v>
+        <v>87.787610619469021</v>
       </c>
       <c r="L63" s="8">
-        <v>0.21434534317103271</v>
+        <v>1.3588353123908179</v>
       </c>
       <c r="M63" s="8">
-        <v>0.94601769911504419</v>
+        <v>0.87787610619469025</v>
       </c>
       <c r="N63" s="8">
-        <v>0.94365802898993911</v>
+        <v>0.85100890859006117</v>
       </c>
       <c r="P63" t="s">
         <v>14</v>
@@ -3553,7 +3546,7 @@
         <v>94.881366217335767</v>
       </c>
     </row>
-    <row r="64" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D64" t="s">
         <v>15</v>
       </c>
@@ -3573,16 +3566,16 @@
         <v>15</v>
       </c>
       <c r="K64" s="8">
-        <v>87.79158989264613</v>
+        <v>93.982300884955748</v>
       </c>
       <c r="L64" s="8">
-        <v>0.54372248793762668</v>
+        <v>0.15710754721680659</v>
       </c>
       <c r="M64" s="8">
-        <v>0.87791589892646138</v>
+        <v>0.9398230088495575</v>
       </c>
       <c r="N64" s="8">
-        <v>0.87321645852670637</v>
+        <v>0.9407904405436579</v>
       </c>
       <c r="P64" t="s">
         <v>15</v>
@@ -3600,7 +3593,7 @@
         <v>82.096416237207706</v>
       </c>
     </row>
-    <row r="65" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D65" t="s">
         <v>16</v>
       </c>
@@ -3620,16 +3613,16 @@
         <v>16</v>
       </c>
       <c r="K65" s="8">
-        <v>89.21409354752204</v>
+        <v>81.083573387313038</v>
       </c>
       <c r="L65" s="8">
-        <v>0.37832931077373272</v>
+        <v>0.80725026036073078</v>
       </c>
       <c r="M65" s="8">
-        <v>0.89214093547522033</v>
+        <v>0.81083573387313046</v>
       </c>
       <c r="N65" s="8">
-        <v>0.87345873583921185</v>
+        <v>0.80564595562431651</v>
       </c>
       <c r="P65" t="s">
         <v>16</v>
@@ -3647,7 +3640,7 @@
         <v>89.396610202351496</v>
       </c>
     </row>
-    <row r="66" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D66" t="s">
         <v>17</v>
       </c>
@@ -3667,16 +3660,16 @@
         <v>17</v>
       </c>
       <c r="K66" s="8">
-        <v>70.488585541397413</v>
+        <v>88.409761330115316</v>
       </c>
       <c r="L66" s="8">
-        <v>1.3982973136029611</v>
+        <v>0.80790524954581611</v>
       </c>
       <c r="M66" s="8">
-        <v>0.70488585541397408</v>
+        <v>0.88409761330115322</v>
       </c>
       <c r="N66" s="8">
-        <v>0.65786930304195468</v>
+        <v>0.86588892275424434</v>
       </c>
       <c r="P66" t="s">
         <v>17</v>
@@ -3694,7 +3687,7 @@
         <v>84.484095878598382</v>
       </c>
     </row>
-    <row r="67" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
         <v>18</v>
       </c>
@@ -3714,16 +3707,16 @@
         <v>18</v>
       </c>
       <c r="K67" s="8">
-        <v>92.654867256637175</v>
+        <v>80.619469026548671</v>
       </c>
       <c r="L67" s="8">
-        <v>0.2504850960549217</v>
+        <v>3.233562013204105</v>
       </c>
       <c r="M67" s="8">
-        <v>0.92654867256637163</v>
+        <v>0.80619469026548674</v>
       </c>
       <c r="N67" s="8">
-        <v>0.92677855327084124</v>
+        <v>0.75644762120425502</v>
       </c>
       <c r="P67" t="s">
         <v>18</v>
@@ -3741,7 +3734,7 @@
         <v>90.310343386208956</v>
       </c>
     </row>
-    <row r="68" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D68" t="s">
         <v>19</v>
       </c>
@@ -3761,16 +3754,16 @@
         <v>19</v>
       </c>
       <c r="K68" s="8">
-        <v>72.861356932153399</v>
+        <v>83.451327433628322</v>
       </c>
       <c r="L68" s="8">
-        <v>2.183020502359212</v>
+        <v>0.93226461952898831</v>
       </c>
       <c r="M68" s="8">
-        <v>0.72861356932153387</v>
+        <v>0.8345132743362832</v>
       </c>
       <c r="N68" s="8">
-        <v>0.716998675568848</v>
+        <v>0.82538983931584853</v>
       </c>
       <c r="P68" t="s">
         <v>19</v>
@@ -3788,7 +3781,7 @@
         <v>76.032240246332151</v>
       </c>
     </row>
-    <row r="69" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D69" t="s">
         <v>20</v>
       </c>
@@ -3808,16 +3801,16 @@
         <v>20</v>
       </c>
       <c r="K69" s="8">
-        <v>78.88165122535662</v>
+        <v>75.3154439052241</v>
       </c>
       <c r="L69" s="8">
-        <v>2.1643221817261269</v>
+        <v>5.9860679038831641</v>
       </c>
       <c r="M69" s="8">
-        <v>0.78881651225356619</v>
+        <v>0.75315443905224089</v>
       </c>
       <c r="N69" s="8">
-        <v>0.75755149956213619</v>
+        <v>0.71145166759993628</v>
       </c>
       <c r="P69" t="s">
         <v>20</v>
@@ -3835,7 +3828,7 @@
         <v>78.993894345560832</v>
       </c>
     </row>
-    <row r="70" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D70" t="s">
         <v>21</v>
       </c>
@@ -3855,16 +3848,16 @@
         <v>21</v>
       </c>
       <c r="K70" s="8">
-        <v>85.427728613569315</v>
+        <v>95.472798207596952</v>
       </c>
       <c r="L70" s="8">
-        <v>3.1507017706500768</v>
+        <v>0.1979452263487918</v>
       </c>
       <c r="M70" s="8">
-        <v>0.8542772861356932</v>
+        <v>0.95472798207596943</v>
       </c>
       <c r="N70" s="8">
-        <v>0.82044245794878079</v>
+        <v>0.95283782109279469</v>
       </c>
       <c r="P70" t="s">
         <v>21</v>
@@ -3882,7 +3875,7 @@
         <v>97.47578353626146</v>
       </c>
     </row>
-    <row r="71" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D71" t="s">
         <v>22</v>
       </c>
@@ -3902,16 +3895,16 @@
         <v>22</v>
       </c>
       <c r="K71" s="8">
-        <v>91.333662055900135</v>
+        <v>92.064896755162252</v>
       </c>
       <c r="L71" s="8">
-        <v>0.92975698880169655</v>
+        <v>0.68241953152477919</v>
       </c>
       <c r="M71" s="8">
-        <v>0.91333662055900133</v>
+        <v>0.9206489675516224</v>
       </c>
       <c r="N71" s="8">
-        <v>0.89308913817061364</v>
+        <v>0.89743574734942422</v>
       </c>
       <c r="P71" t="s">
         <v>22</v>
@@ -3929,7 +3922,7 @@
         <v>77.714264072269089</v>
       </c>
     </row>
-    <row r="72" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
         <v>23</v>
       </c>
@@ -3949,16 +3942,16 @@
         <v>23</v>
       </c>
       <c r="K72" s="8">
-        <v>90.914454277286126</v>
+        <v>83.185840707964601</v>
       </c>
       <c r="L72" s="8">
-        <v>2.1072073487459528</v>
+        <v>1.8435340167212</v>
       </c>
       <c r="M72" s="8">
-        <v>0.90914454277286139</v>
+        <v>0.83185840707964598</v>
       </c>
       <c r="N72" s="8">
-        <v>0.88942677183263452</v>
+        <v>0.80924746754575083</v>
       </c>
       <c r="P72" t="s">
         <v>23</v>
@@ -3976,7 +3969,7 @@
         <v>81.36696611883967</v>
       </c>
     </row>
-    <row r="73" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D73" t="s">
         <v>24</v>
       </c>
@@ -3996,16 +3989,16 @@
         <v>24</v>
       </c>
       <c r="K73" s="8">
-        <v>99.675516224188783</v>
+        <v>98.554572271386434</v>
       </c>
       <c r="L73" s="8">
-        <v>8.0175484956756058E-3</v>
+        <v>5.3272705575738363E-2</v>
       </c>
       <c r="M73" s="8">
-        <v>0.99675516224188798</v>
+        <v>0.98554572271386431</v>
       </c>
       <c r="N73" s="8">
-        <v>0.99673747489789033</v>
+        <v>0.98527882563556379</v>
       </c>
       <c r="P73" t="s">
         <v>24</v>
@@ -4023,7 +4016,7 @@
         <v>99.231995949411996</v>
       </c>
     </row>
-    <row r="74" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D74" t="s">
         <v>25</v>
       </c>
@@ -4043,16 +4036,16 @@
         <v>25</v>
       </c>
       <c r="K74" s="8">
-        <v>76.417356551527263</v>
+        <v>75.871331066877744</v>
       </c>
       <c r="L74" s="8">
-        <v>2.0640746076242809</v>
+        <v>2.5611627253619682</v>
       </c>
       <c r="M74" s="8">
-        <v>0.7641735655152726</v>
+        <v>0.75871331066877734</v>
       </c>
       <c r="N74" s="8">
-        <v>0.74262968930928475</v>
+        <v>0.73933596665292467</v>
       </c>
       <c r="P74" t="s">
         <v>25</v>
@@ -4070,7 +4063,7 @@
         <v>76.165639893636921</v>
       </c>
     </row>
-    <row r="75" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D75" t="s">
         <v>26</v>
       </c>
@@ -4090,16 +4083,16 @@
         <v>26</v>
       </c>
       <c r="K75" s="8">
-        <v>89.397140113668797</v>
+        <v>93.30383480825958</v>
       </c>
       <c r="L75" s="8">
-        <v>0.95079785914587089</v>
+        <v>0.64955569834367333</v>
       </c>
       <c r="M75" s="8">
-        <v>0.89397140113668816</v>
+        <v>0.93303834808259578</v>
       </c>
       <c r="N75" s="8">
-        <v>0.881186111356832</v>
+        <v>0.91619562254883957</v>
       </c>
       <c r="P75" t="s">
         <v>26</v>
@@ -4117,7 +4110,7 @@
         <v>91.399936267169252</v>
       </c>
     </row>
-    <row r="76" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
         <v>27</v>
       </c>
@@ -4137,16 +4130,16 @@
         <v>27</v>
       </c>
       <c r="K76" s="8">
-        <v>93.576934056522987</v>
+        <v>88.623950034169837</v>
       </c>
       <c r="L76" s="8">
-        <v>0.18387677794671681</v>
+        <v>0.35074603407618582</v>
       </c>
       <c r="M76" s="8">
-        <v>0.93576934056522987</v>
+        <v>0.88623950034169852</v>
       </c>
       <c r="N76" s="8">
-        <v>0.93119894573145046</v>
+        <v>0.87603812653016999</v>
       </c>
       <c r="P76" t="s">
         <v>27</v>
@@ -4164,7 +4157,7 @@
         <v>86.707292850217243</v>
       </c>
     </row>
-    <row r="77" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D77" t="s">
         <v>28</v>
       </c>
@@ -4184,16 +4177,16 @@
         <v>28</v>
       </c>
       <c r="K77" s="8">
-        <v>98.997050147492629</v>
+        <v>91.917144611977605</v>
       </c>
       <c r="L77" s="8">
-        <v>1.7390741508821011E-2</v>
+        <v>0.43437089506871729</v>
       </c>
       <c r="M77" s="8">
-        <v>0.98997050147492627</v>
+        <v>0.91917144611977619</v>
       </c>
       <c r="N77" s="8">
-        <v>0.98984536106274523</v>
+        <v>0.91050533613881868</v>
       </c>
       <c r="P77" t="s">
         <v>28</v>
@@ -4211,7 +4204,7 @@
         <v>89.93721254812877</v>
       </c>
     </row>
-    <row r="78" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D78" t="s">
         <v>29</v>
       </c>
@@ -4231,16 +4224,16 @@
         <v>29</v>
       </c>
       <c r="K78" s="8">
-        <v>89.295149612020879</v>
+        <v>90.353982300884951</v>
       </c>
       <c r="L78" s="8">
-        <v>0.59207937835331037</v>
+        <v>0.43875633422263111</v>
       </c>
       <c r="M78" s="8">
-        <v>0.89295149612020863</v>
+        <v>0.9035398230088495</v>
       </c>
       <c r="N78" s="8">
-        <v>0.87193373657784312</v>
+        <v>0.89760395726197262</v>
       </c>
       <c r="P78" t="s">
         <v>29</v>
@@ -4258,7 +4251,7 @@
         <v>90.614674805129582</v>
       </c>
     </row>
-    <row r="79" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -4278,16 +4271,16 @@
         <v>30</v>
       </c>
       <c r="K79" s="8">
-        <v>90.094204967171009</v>
+        <v>92.772861356932154</v>
       </c>
       <c r="L79" s="8">
-        <v>0.89043361197972748</v>
+        <v>0.39356119769773829</v>
       </c>
       <c r="M79" s="8">
-        <v>0.90094204967170999</v>
+        <v>0.92772861356932146</v>
       </c>
       <c r="N79" s="8">
-        <v>0.87856791456031347</v>
+        <v>0.90416020345701242</v>
       </c>
       <c r="P79" t="s">
         <v>30</v>
@@ -4305,7 +4298,7 @@
         <v>89.00772667473629</v>
       </c>
     </row>
-    <row r="80" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D80" t="s">
         <v>31</v>
       </c>
@@ -4325,16 +4318,16 @@
         <v>31</v>
       </c>
       <c r="K80" s="8">
-        <v>89.474476422806418</v>
+        <v>85.826434484727372</v>
       </c>
       <c r="L80" s="8">
-        <v>0.54769713459624347</v>
+        <v>0.8673674635773978</v>
       </c>
       <c r="M80" s="8">
-        <v>0.89474476422806437</v>
+        <v>0.85826434484727376</v>
       </c>
       <c r="N80" s="8">
-        <v>0.87943256803918735</v>
+        <v>0.83575254451095871</v>
       </c>
       <c r="P80" t="s">
         <v>31</v>
@@ -4352,7 +4345,7 @@
         <v>92.824778264214899</v>
       </c>
     </row>
-    <row r="81" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D81" t="s">
         <v>32</v>
       </c>
@@ -4372,16 +4365,16 @@
         <v>32</v>
       </c>
       <c r="K81" s="8">
-        <v>79.493075199612449</v>
+        <v>88.953278142544491</v>
       </c>
       <c r="L81" s="8">
-        <v>1.075055469576057</v>
+        <v>0.30117861517006189</v>
       </c>
       <c r="M81" s="8">
-        <v>0.79493075199612451</v>
+        <v>0.8895327814254449</v>
       </c>
       <c r="N81" s="8">
-        <v>0.78103278198334158</v>
+        <v>0.87648528395125813</v>
       </c>
       <c r="P81" t="s">
         <v>32</v>
@@ -4399,7 +4392,7 @@
         <v>85.341124300743942</v>
       </c>
     </row>
-    <row r="82" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D82" t="s">
         <v>33</v>
       </c>
@@ -4419,16 +4412,16 @@
         <v>33</v>
       </c>
       <c r="K82" s="8">
-        <v>89.211152345608525</v>
+        <v>97.050147492625371</v>
       </c>
       <c r="L82" s="8">
-        <v>0.31951419033912692</v>
+        <v>0.1701757250096925</v>
       </c>
       <c r="M82" s="8">
-        <v>0.89211152345608524</v>
+        <v>0.97050147492625372</v>
       </c>
       <c r="N82" s="8">
-        <v>0.87090378765653909</v>
+        <v>0.96715793201399958</v>
       </c>
       <c r="P82" t="s">
         <v>33</v>
@@ -4446,7 +4439,7 @@
         <v>84.373394555407998</v>
       </c>
     </row>
-    <row r="83" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D83" t="s">
         <v>34</v>
       </c>
@@ -4466,16 +4459,16 @@
         <v>34</v>
       </c>
       <c r="K83" s="8">
-        <v>81.772247164767862</v>
+        <v>86.281542227873942</v>
       </c>
       <c r="L83" s="8">
-        <v>1.182608292384282</v>
+        <v>0.33283952832521191</v>
       </c>
       <c r="M83" s="8">
-        <v>0.81772247164767864</v>
+        <v>0.86281542227873942</v>
       </c>
       <c r="N83" s="8">
-        <v>0.81035556965161837</v>
+        <v>0.85169529582323611</v>
       </c>
       <c r="P83" t="s">
         <v>34</v>
@@ -4493,7 +4486,7 @@
         <v>87.827402151300902</v>
       </c>
     </row>
-    <row r="84" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D84" t="s">
         <v>35</v>
       </c>
@@ -4513,16 +4506,16 @@
         <v>35</v>
       </c>
       <c r="K84" s="8">
-        <v>97.67463386361473</v>
+        <v>89.941002949852503</v>
       </c>
       <c r="L84" s="8">
-        <v>4.0883292539157831E-2</v>
+        <v>0.70993520097389817</v>
       </c>
       <c r="M84" s="8">
-        <v>0.97674633863614735</v>
+        <v>0.899410029498525</v>
       </c>
       <c r="N84" s="8">
-        <v>0.9765690638460407</v>
+        <v>0.87742319351657927</v>
       </c>
       <c r="P84" t="s">
         <v>35</v>
@@ -4540,7 +4533,7 @@
         <v>90.947279772867461</v>
       </c>
     </row>
-    <row r="85" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D85" t="s">
         <v>36</v>
       </c>
@@ -4560,16 +4553,16 @@
         <v>36</v>
       </c>
       <c r="K85" s="8">
-        <v>94.985250737463133</v>
+        <v>95.343904359034255</v>
       </c>
       <c r="L85" s="8">
-        <v>0.1669930952205749</v>
+        <v>8.4569517094236532E-2</v>
       </c>
       <c r="M85" s="8">
-        <v>0.94985250737463134</v>
+        <v>0.95343904359034259</v>
       </c>
       <c r="N85" s="8">
-        <v>0.94552860625905433</v>
+        <v>0.95343233298518371</v>
       </c>
       <c r="P85" t="s">
         <v>36</v>
@@ -4587,7 +4580,7 @@
         <v>93.00890238083926</v>
       </c>
     </row>
-    <row r="86" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D86" t="s">
         <v>37</v>
       </c>
@@ -4607,16 +4600,16 @@
         <v>37</v>
       </c>
       <c r="K86" s="8">
-        <v>98.849557522123888</v>
+        <v>99.911504424778769</v>
       </c>
       <c r="L86" s="8">
-        <v>4.4225017579747568E-2</v>
+        <v>2.9588885377055622E-3</v>
       </c>
       <c r="M86" s="8">
-        <v>0.98849557522123899</v>
+        <v>0.99911504424778763</v>
       </c>
       <c r="N86" s="8">
-        <v>0.98841093676855718</v>
+        <v>0.99911575353165749</v>
       </c>
       <c r="P86" t="s">
         <v>37</v>
@@ -4634,7 +4627,7 @@
         <v>96.202115157589134</v>
       </c>
     </row>
-    <row r="87" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D87" t="s">
         <v>38</v>
       </c>
@@ -4654,16 +4647,16 @@
         <v>38</v>
       </c>
       <c r="K87" s="8">
-        <v>89.35103244837758</v>
+        <v>79.203539823008853</v>
       </c>
       <c r="L87" s="8">
-        <v>0.30254615252790612</v>
+        <v>0.69877355624695281</v>
       </c>
       <c r="M87" s="8">
-        <v>0.89351032448377588</v>
+        <v>0.79203539823008851</v>
       </c>
       <c r="N87" s="8">
-        <v>0.87802348040773504</v>
+        <v>0.75602955760724067</v>
       </c>
       <c r="P87" t="s">
         <v>38</v>
@@ -4681,7 +4674,7 @@
         <v>87.546825120235226</v>
       </c>
     </row>
-    <row r="88" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D88" t="s">
         <v>39</v>
       </c>
@@ -4701,16 +4694,16 @@
         <v>39</v>
       </c>
       <c r="K88" s="8">
-        <v>76.814159292035399</v>
+        <v>74.490955804115956</v>
       </c>
       <c r="L88" s="8">
-        <v>2.0305028039632211</v>
+        <v>2.25634042811294</v>
       </c>
       <c r="M88" s="8">
-        <v>0.768141592920354</v>
+        <v>0.74490955804115955</v>
       </c>
       <c r="N88" s="8">
-        <v>0.75025094581443752</v>
+        <v>0.71361184254628285</v>
       </c>
       <c r="P88" t="s">
         <v>39</v>
@@ -4728,7 +4721,7 @@
         <v>87.574843887636959</v>
       </c>
     </row>
-    <row r="89" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D89" t="s">
         <v>40</v>
       </c>
@@ -4748,16 +4741,16 @@
         <v>40</v>
       </c>
       <c r="K89" s="8">
-        <v>91.962473723821148</v>
+        <v>92.588517201705898</v>
       </c>
       <c r="L89" s="8">
-        <v>0.27651802314393958</v>
+        <v>0.55246760983398147</v>
       </c>
       <c r="M89" s="8">
-        <v>0.91962473723821136</v>
+        <v>0.925885172017059</v>
       </c>
       <c r="N89" s="8">
-        <v>0.91285989624988917</v>
+        <v>0.91953805960683488</v>
       </c>
       <c r="P89" t="s">
         <v>40</v>
@@ -4775,7 +4768,7 @@
         <v>87.181237941757928</v>
       </c>
     </row>
-    <row r="90" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D90" t="s">
         <v>41</v>
       </c>
@@ -4795,16 +4788,16 @@
         <v>41</v>
       </c>
       <c r="K90" s="8">
-        <v>88.442720092734362</v>
+        <v>92.30088495575221</v>
       </c>
       <c r="L90" s="8">
-        <v>0.66432784326962657</v>
+        <v>0.312624774938351</v>
       </c>
       <c r="M90" s="8">
-        <v>0.88442720092734373</v>
+        <v>0.92300884955752205</v>
       </c>
       <c r="N90" s="8">
-        <v>0.86447349475920743</v>
+        <v>0.92023574164513633</v>
       </c>
       <c r="P90" t="s">
         <v>41</v>
@@ -4822,7 +4815,7 @@
         <v>93.249908373753712</v>
       </c>
     </row>
-    <row r="91" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D91" t="s">
         <v>42</v>
       </c>
@@ -4842,16 +4835,16 @@
         <v>42</v>
       </c>
       <c r="K91" s="8">
-        <v>99.144888796615888</v>
+        <v>98.558551544563528</v>
       </c>
       <c r="L91" s="8">
-        <v>3.8762461289680507E-2</v>
+        <v>2.949868214682165E-2</v>
       </c>
       <c r="M91" s="8">
-        <v>0.99144888796615882</v>
+        <v>0.98558551544563533</v>
       </c>
       <c r="N91" s="8">
-        <v>0.99147149703328386</v>
+        <v>0.98553747039527906</v>
       </c>
       <c r="P91" t="s">
         <v>42</v>
@@ -4869,7 +4862,7 @@
         <v>89.425409331093306</v>
       </c>
     </row>
-    <row r="92" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D92" t="s">
         <v>43</v>
       </c>
@@ -4889,16 +4882,16 @@
         <v>43</v>
       </c>
       <c r="K92" s="8">
-        <v>91.858407079646014</v>
+        <v>97.846607669616517</v>
       </c>
       <c r="L92" s="8">
-        <v>0.50606718137366946</v>
+        <v>0.15693279583442241</v>
       </c>
       <c r="M92" s="8">
-        <v>0.91858407079646009</v>
+        <v>0.97846607669616525</v>
       </c>
       <c r="N92" s="8">
-        <v>0.89621434784142673</v>
+        <v>0.97796090708316608</v>
       </c>
       <c r="P92" t="s">
         <v>43</v>
@@ -4916,7 +4909,7 @@
         <v>98.277524880988807</v>
       </c>
     </row>
-    <row r="93" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D93" t="s">
         <v>44</v>
       </c>
@@ -4936,16 +4929,16 @@
         <v>44</v>
       </c>
       <c r="K93" s="8">
-        <v>86.194690265486727</v>
+        <v>89.203539823008853</v>
       </c>
       <c r="L93" s="8">
-        <v>1.52109819548282</v>
+        <v>0.5472277631981789</v>
       </c>
       <c r="M93" s="8">
-        <v>0.86194690265486729</v>
+        <v>0.89203539823008848</v>
       </c>
       <c r="N93" s="8">
-        <v>0.82374076879512903</v>
+        <v>0.87928061671230096</v>
       </c>
       <c r="P93" t="s">
         <v>44</v>
@@ -4963,7 +4956,7 @@
         <v>88.121490803071509</v>
       </c>
     </row>
-    <row r="94" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D94" t="s">
         <v>45</v>
       </c>
@@ -4983,16 +4976,16 @@
         <v>45</v>
       </c>
       <c r="K94" s="8">
-        <v>75.664927897300146</v>
+        <v>74.21828908554572</v>
       </c>
       <c r="L94" s="8">
-        <v>2.1327523427201158</v>
+        <v>1.656474463369648</v>
       </c>
       <c r="M94" s="8">
-        <v>0.75664927897300149</v>
+        <v>0.7421828908554573</v>
       </c>
       <c r="N94" s="8">
-        <v>0.7156859733987494</v>
+        <v>0.70721923550672972</v>
       </c>
       <c r="P94" t="s">
         <v>45</v>
@@ -5010,7 +5003,7 @@
         <v>79.21879669110038</v>
       </c>
     </row>
-    <row r="95" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D95" t="s">
         <v>46</v>
       </c>
@@ -5030,16 +5023,16 @@
         <v>46</v>
       </c>
       <c r="K95" s="8">
-        <v>91.82890855457228</v>
+        <v>91.514459467642453</v>
       </c>
       <c r="L95" s="8">
-        <v>0.67267550010595378</v>
+        <v>1.256328645924714</v>
       </c>
       <c r="M95" s="8">
-        <v>0.91828908554572275</v>
+        <v>0.91514459467642451</v>
       </c>
       <c r="N95" s="8">
-        <v>0.89543003201596338</v>
+        <v>0.89363208649020032</v>
       </c>
       <c r="P95" t="s">
         <v>46</v>
@@ -5057,7 +5050,7 @@
         <v>90.921267289810331</v>
       </c>
     </row>
-    <row r="96" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
         <v>47</v>
       </c>
@@ -5077,16 +5070,16 @@
         <v>47</v>
       </c>
       <c r="K96" s="8">
-        <v>98.112094395280238</v>
+        <v>97.817109144542769</v>
       </c>
       <c r="L96" s="8">
-        <v>3.4352997461246093E-2</v>
+        <v>7.7265945022123944E-2</v>
       </c>
       <c r="M96" s="8">
-        <v>0.98112094395280247</v>
+        <v>0.9781710914454278</v>
       </c>
       <c r="N96" s="8">
-        <v>0.9808663355738918</v>
+        <v>0.97733247067040785</v>
       </c>
       <c r="P96" t="s">
         <v>47</v>
@@ -5104,7 +5097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D97" t="s">
         <v>48</v>
       </c>
@@ -5124,16 +5117,16 @@
         <v>48</v>
       </c>
       <c r="K97" s="8">
-        <v>97.905604719764</v>
+        <v>97.440894817429211</v>
       </c>
       <c r="L97" s="8">
-        <v>3.8558770829644123E-2</v>
+        <v>5.4892303555485952E-2</v>
       </c>
       <c r="M97" s="8">
-        <v>0.97905604719764017</v>
+        <v>0.97440894817429213</v>
       </c>
       <c r="N97" s="8">
-        <v>0.97855167757193262</v>
+        <v>0.974249957882934</v>
       </c>
       <c r="P97" t="s">
         <v>48</v>
@@ -5151,7 +5144,7 @@
         <v>94.736061768988549</v>
       </c>
     </row>
-    <row r="98" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D98" t="s">
         <v>49</v>
       </c>
@@ -5171,16 +5164,16 @@
         <v>49</v>
       </c>
       <c r="K98" s="8">
-        <v>100</v>
+        <v>98.123167155425222</v>
       </c>
       <c r="L98" s="8">
-        <v>2.697730844640016E-8</v>
+        <v>0.3505753022049381</v>
       </c>
       <c r="M98" s="8">
-        <v>1</v>
+        <v>0.98123167155425217</v>
       </c>
       <c r="N98" s="8">
-        <v>1</v>
+        <v>0.98099842453965758</v>
       </c>
       <c r="P98" t="s">
         <v>49</v>
@@ -5198,7 +5191,7 @@
         <v>98.373991088133479</v>
       </c>
     </row>
-    <row r="99" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D99" t="s">
         <v>50</v>
       </c>
@@ -5211,11 +5204,8 @@
       </c>
       <c r="K99" s="8">
         <f>AVERAGE(K54:K98)</f>
-        <v>87.325372864624939</v>
-      </c>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
+        <v>87.736443317944889</v>
+      </c>
       <c r="P99" t="s">
         <v>50</v>
       </c>
@@ -5226,19 +5216,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="E51:H51"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="Q51:T51"/>
     <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5253,78 +5243,78 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="6"/>
+    <col min="1" max="2" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
       <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="2"/>
       <c r="J1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
       <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
       <c r="V1" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
       <c r="AA1" s="2"/>
       <c r="AB1" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
       <c r="AH1" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D2" t="s">
@@ -5336,10 +5326,10 @@
       <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="4" t="b">
+      <c r="G2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
         <v>57</v>
@@ -5350,10 +5340,10 @@
       <c r="L2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="6"/>
       <c r="P2" t="s">
         <v>57</v>
       </c>
@@ -5376,10 +5366,10 @@
       <c r="X2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="4"/>
+      <c r="Z2" s="6"/>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
         <v>57</v>
@@ -5390,10 +5380,10 @@
       <c r="AD2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="4" t="b">
+      <c r="AE2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" s="4"/>
+      <c r="AF2" s="6"/>
       <c r="AH2" t="s">
         <v>57</v>
       </c>
@@ -5403,16 +5393,16 @@
       <c r="AJ2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AL2" s="4"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="AL2" s="6"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -5508,11 +5498,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>9</v>
       </c>
       <c r="D4" t="s">
@@ -5606,11 +5596,11 @@
         <v>0.7842335501746327</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
@@ -5704,7 +5694,7 @@
         <v>0.92523548971463188</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -5796,7 +5786,7 @@
         <v>0.76928694198847647</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -5888,7 +5878,7 @@
         <v>0.79726467218517139</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -5980,7 +5970,7 @@
         <v>0.79185753313206164</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -6072,7 +6062,7 @@
         <v>0.93918996466152738</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -6164,7 +6154,7 @@
         <v>0.89112260167220436</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -6256,7 +6246,7 @@
         <v>0.72352238667429702</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -6348,7 +6338,7 @@
         <v>0.81202673448023965</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -6440,7 +6430,7 @@
         <v>0.96542244854326797</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -6532,7 +6522,7 @@
         <v>0.86981967275741956</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -6624,7 +6614,7 @@
         <v>0.87532115350516049</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -6716,7 +6706,7 @@
         <v>0.78733170114427531</v>
       </c>
     </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -6808,7 +6798,7 @@
         <v>0.88409700444385941</v>
       </c>
     </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -6900,7 +6890,7 @@
         <v>0.63586445446236872</v>
       </c>
     </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -6992,7 +6982,7 @@
         <v>0.7461044348501128</v>
       </c>
     </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -7084,7 +7074,7 @@
         <v>0.80208130352126139</v>
       </c>
     </row>
-    <row r="21" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -7176,7 +7166,7 @@
         <v>0.85276985604602074</v>
       </c>
     </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>23</v>
       </c>
@@ -7268,7 +7258,7 @@
         <v>0.87226158315020808</v>
       </c>
     </row>
-    <row r="23" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -7360,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>25</v>
       </c>
@@ -7452,7 +7442,7 @@
         <v>0.76169169943392034</v>
       </c>
     </row>
-    <row r="25" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>26</v>
       </c>
@@ -7544,7 +7534,7 @@
         <v>0.82482829669231283</v>
       </c>
     </row>
-    <row r="26" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -7636,7 +7626,7 @@
         <v>0.84762251378981335</v>
       </c>
     </row>
-    <row r="27" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -7728,7 +7718,7 @@
         <v>0.96000038846420532</v>
       </c>
     </row>
-    <row r="28" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
         <v>29</v>
       </c>
@@ -7820,7 +7810,7 @@
         <v>0.87395417324459856</v>
       </c>
     </row>
-    <row r="29" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
         <v>30</v>
       </c>
@@ -7912,7 +7902,7 @@
         <v>0.84966237380577214</v>
       </c>
     </row>
-    <row r="30" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -8004,7 +7994,7 @@
         <v>0.61986257784963339</v>
       </c>
     </row>
-    <row r="31" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
         <v>32</v>
       </c>
@@ -8096,7 +8086,7 @@
         <v>0.89386947866848898</v>
       </c>
     </row>
-    <row r="32" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -8188,7 +8178,7 @@
         <v>0.76349408660702123</v>
       </c>
     </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
         <v>34</v>
       </c>
@@ -8280,7 +8270,7 @@
         <v>0.61533941631855571</v>
       </c>
     </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>35</v>
       </c>
@@ -8372,7 +8362,7 @@
         <v>0.80126108017334019</v>
       </c>
     </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
         <v>36</v>
       </c>
@@ -8464,7 +8454,7 @@
         <v>0.84636139883692896</v>
       </c>
     </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -8556,7 +8546,7 @@
         <v>0.97423948025072171</v>
       </c>
     </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -8648,7 +8638,7 @@
         <v>0.93382412598588638</v>
       </c>
     </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
         <v>39</v>
       </c>
@@ -8740,7 +8730,7 @@
         <v>0.73438525527884646</v>
       </c>
     </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -8832,7 +8822,7 @@
         <v>0.92594843814634531</v>
       </c>
     </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>41</v>
       </c>
@@ -8924,7 +8914,7 @@
         <v>0.96416542234368163</v>
       </c>
     </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -9016,7 +9006,7 @@
         <v>0.94176434062563352</v>
       </c>
     </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -9108,7 +9098,7 @@
         <v>0.5426455113050862</v>
       </c>
     </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
         <v>44</v>
       </c>
@@ -9200,7 +9190,7 @@
         <v>0.870085721921525</v>
       </c>
     </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -9292,7 +9282,7 @@
         <v>0.58006836861409483</v>
       </c>
     </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
         <v>46</v>
       </c>
@@ -9384,7 +9374,7 @@
         <v>0.82199250187118245</v>
       </c>
     </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D46" t="s">
         <v>47</v>
       </c>
@@ -9476,7 +9466,7 @@
         <v>0.88438723936071639</v>
       </c>
     </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D47" t="s">
         <v>48</v>
       </c>
@@ -9568,7 +9558,7 @@
         <v>0.92390515536626849</v>
       </c>
     </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D48" t="s">
         <v>49</v>
       </c>
@@ -9660,7 +9650,7 @@
         <v>0.99557292265256869</v>
       </c>
     </row>
-    <row r="49" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
         <v>50</v>
       </c>
@@ -9702,6 +9692,3142 @@
       <c r="AI49">
         <f>AVERAGE(AI4:AI48)</f>
         <v>85.395048592308086</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AC1:AF1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2328C8CC-3742-41E6-91E5-A15E74AAF9C2}">
+  <dimension ref="A1:AL49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="D1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="P1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AH1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="10">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="10">
+        <v>16</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" s="2">
+        <v>16</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="6"/>
+      <c r="AH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" s="6"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>82.774158946011639</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.7635994343905772</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.82774158946011644</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.7984289635727051</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="8">
+        <v>78.295919514874697</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.93325233092490634</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.78295919514874701</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.7478492274846007</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>79.283298298428193</v>
+      </c>
+      <c r="R4">
+        <v>1.0728831404731629</v>
+      </c>
+      <c r="S4">
+        <v>0.79283298298428195</v>
+      </c>
+      <c r="T4">
+        <v>0.76864244454946806</v>
+      </c>
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>73.510324483775804</v>
+      </c>
+      <c r="X4">
+        <v>2.3954586131837909</v>
+      </c>
+      <c r="Y4">
+        <v>0.73510324483775813</v>
+      </c>
+      <c r="Z4">
+        <v>0.67523370853128295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>70.266957326620471</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.213398432844853</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.70266957326620472</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.65438208222332894</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="8">
+        <v>72.397771607020815</v>
+      </c>
+      <c r="L5" s="8">
+        <v>3.3296329673152338</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.72397771607020822</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.68288196430412496</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>67.138210538153444</v>
+      </c>
+      <c r="R5">
+        <v>2.488626776202056</v>
+      </c>
+      <c r="S5">
+        <v>0.67138210538153442</v>
+      </c>
+      <c r="T5">
+        <v>0.60844832342014876</v>
+      </c>
+      <c r="V5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>83.303834808259595</v>
+      </c>
+      <c r="X5">
+        <v>2.2012423380859731</v>
+      </c>
+      <c r="Y5">
+        <v>0.8330383480825958</v>
+      </c>
+      <c r="Z5">
+        <v>0.8006015304786851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8">
+        <v>57.790724833259802</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3.6086695469845531</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.57790724833259799</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.5486090382936496</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="8">
+        <v>83.869843164733254</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2.5485845331439121</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.8386984316473326</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.81692782803688146</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>75.844514225901605</v>
+      </c>
+      <c r="R6">
+        <v>1.824167566886262</v>
+      </c>
+      <c r="S6">
+        <v>0.75844514225901605</v>
+      </c>
+      <c r="T6">
+        <v>0.73174118364332386</v>
+      </c>
+      <c r="V6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>74.932655126774449</v>
+      </c>
+      <c r="X6">
+        <v>2.056700485363641</v>
+      </c>
+      <c r="Y6">
+        <v>0.7493265512677445</v>
+      </c>
+      <c r="Z6">
+        <v>0.71167396906417602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>58.44998659157951</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2.9285298990726458</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.58449986591579506</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.49033425993475999</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="8">
+        <v>70.48062699504321</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2.431444767938304</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.70480626995043205</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.66827961964577764</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>62.387217882507628</v>
+      </c>
+      <c r="R7">
+        <v>2.2910092247053711</v>
+      </c>
+      <c r="S7">
+        <v>0.62387217882507628</v>
+      </c>
+      <c r="T7">
+        <v>0.5573546121525017</v>
+      </c>
+      <c r="V7" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7">
+        <v>71.104853848216678</v>
+      </c>
+      <c r="X7">
+        <v>2.5756984576039632</v>
+      </c>
+      <c r="Y7">
+        <v>0.71104853848216676</v>
+      </c>
+      <c r="Z7">
+        <v>0.66718846693814604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8">
+        <v>76.768657168314604</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.72285368550053908</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.76768657168314602</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.72089552922937938</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="8">
+        <v>70.097319180961762</v>
+      </c>
+      <c r="L8" s="8">
+        <v>5.7989699969058766</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.7009731918096177</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.64759869856771135</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>86.342182890855455</v>
+      </c>
+      <c r="R8">
+        <v>0.35878811290998558</v>
+      </c>
+      <c r="S8">
+        <v>0.86342182890855457</v>
+      </c>
+      <c r="T8">
+        <v>0.84201631665850485</v>
+      </c>
+      <c r="V8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8">
+        <v>91.303298471440058</v>
+      </c>
+      <c r="X8">
+        <v>0.34173542886598413</v>
+      </c>
+      <c r="Y8">
+        <v>0.91303298471440064</v>
+      </c>
+      <c r="Z8">
+        <v>0.8900155500577307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8">
+        <v>88.525073746312685</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.36779842183239758</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.88525073746312688</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.8694287562828823</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="8">
+        <v>90.26548672566372</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.43167719871766702</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.90265486725663724</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.89647890312300405</v>
+      </c>
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>91.502781165927047</v>
+      </c>
+      <c r="R9">
+        <v>0.25213161793886529</v>
+      </c>
+      <c r="S9">
+        <v>0.91502781165927038</v>
+      </c>
+      <c r="T9">
+        <v>0.9073906724394305</v>
+      </c>
+      <c r="V9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>91.353731433662915</v>
+      </c>
+      <c r="X9">
+        <v>0.34738636368183701</v>
+      </c>
+      <c r="Y9">
+        <v>0.91353731433662921</v>
+      </c>
+      <c r="Z9">
+        <v>0.90814084340535162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8">
+        <v>87.051704599520761</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.65729704059367577</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.87051704599520752</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.8621119923458116</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="8">
+        <v>83.524511457711569</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1.172241434686081</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.8352451145771157</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.81312618978583173</v>
+      </c>
+      <c r="P10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>83.716814159292042</v>
+      </c>
+      <c r="R10">
+        <v>0.7148725522833993</v>
+      </c>
+      <c r="S10">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="T10">
+        <v>0.82192751182619062</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10">
+        <v>87.967715983702277</v>
+      </c>
+      <c r="X10">
+        <v>0.57915128313837461</v>
+      </c>
+      <c r="Y10">
+        <v>0.87967715983702277</v>
+      </c>
+      <c r="Z10">
+        <v>0.86660098664613638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.991029334163798</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.4171465479456851</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.82991029334163779</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.8044249011439224</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="8">
+        <v>87.640550523793451</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.74014064790850764</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.87640550523793459</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.86623717196338712</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>87.928096263808513</v>
+      </c>
+      <c r="R11">
+        <v>0.67600848035328998</v>
+      </c>
+      <c r="S11">
+        <v>0.87928096263808508</v>
+      </c>
+      <c r="T11">
+        <v>0.87155025839193656</v>
+      </c>
+      <c r="V11" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11">
+        <v>85.486725663716811</v>
+      </c>
+      <c r="X11">
+        <v>0.85564162845108971</v>
+      </c>
+      <c r="Y11">
+        <v>0.85486725663716823</v>
+      </c>
+      <c r="Z11">
+        <v>0.84696943902738564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8">
+        <v>92.005899705014741</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.59398074189425176</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.9200589970501476</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.89693940785430615</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="8">
+        <v>92.182890855457231</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.57846967218804779</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.92182890855457222</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.89864686408797156</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12">
+        <v>88.466076696165189</v>
+      </c>
+      <c r="R12">
+        <v>0.95857581632650124</v>
+      </c>
+      <c r="S12">
+        <v>0.88466076696165197</v>
+      </c>
+      <c r="T12">
+        <v>0.86767393570980256</v>
+      </c>
+      <c r="V12" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12">
+        <v>89.705014749262531</v>
+      </c>
+      <c r="X12">
+        <v>0.67417458289434307</v>
+      </c>
+      <c r="Y12">
+        <v>0.89705014749262535</v>
+      </c>
+      <c r="Z12">
+        <v>0.88043705716192522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="8">
+        <v>97.084663362139821</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.1043122812407995</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.97084663362139811</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.96976980565081861</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="8">
+        <v>87.787610619469021</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1.3588353123908179</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.87787610619469025</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.85100890859006117</v>
+      </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13">
+        <v>93.067846607669622</v>
+      </c>
+      <c r="R13">
+        <v>0.76632767560992421</v>
+      </c>
+      <c r="S13">
+        <v>0.93067846607669613</v>
+      </c>
+      <c r="T13">
+        <v>0.90763721443029133</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <v>90.069031739028887</v>
+      </c>
+      <c r="X13">
+        <v>0.7583091960806384</v>
+      </c>
+      <c r="Y13">
+        <v>0.90069031739028882</v>
+      </c>
+      <c r="Z13">
+        <v>0.87858158371811279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8">
+        <v>85.752212389380531</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.36344424107910528</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.85752212389380522</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.85407166811842306</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="8">
+        <v>93.982300884955748</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.15710754721680659</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.9398230088495575</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.9407904405436579</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>80.147492625368727</v>
+      </c>
+      <c r="R14">
+        <v>0.69338639418503278</v>
+      </c>
+      <c r="S14">
+        <v>0.80147492625368721</v>
+      </c>
+      <c r="T14">
+        <v>0.75869076910393995</v>
+      </c>
+      <c r="V14" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14">
+        <v>87.817109144542769</v>
+      </c>
+      <c r="X14">
+        <v>0.32927948570113091</v>
+      </c>
+      <c r="Y14">
+        <v>0.87817109144542782</v>
+      </c>
+      <c r="Z14">
+        <v>0.85506295201568894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="8">
+        <v>97.079646017699105</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.11985175796738</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.97079646017699106</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.97065802030624515</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="8">
+        <v>81.083573387313038</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.80725026036073078</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.81083573387313046</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.80564595562431651</v>
+      </c>
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15">
+        <v>91.106843484805239</v>
+      </c>
+      <c r="R15">
+        <v>0.1760680764338228</v>
+      </c>
+      <c r="S15">
+        <v>0.91106843484805233</v>
+      </c>
+      <c r="T15">
+        <v>0.90754677121904825</v>
+      </c>
+      <c r="V15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W15">
+        <v>86.932153392330378</v>
+      </c>
+      <c r="X15">
+        <v>2.2598620884396392</v>
+      </c>
+      <c r="Y15">
+        <v>0.8693215339233038</v>
+      </c>
+      <c r="Z15">
+        <v>0.85036074931156591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8">
+        <v>96.78466076696165</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.11812408890397499</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.96784660766961661</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.96774136915207865</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="8">
+        <v>88.409761330115316</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.80790524954581611</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.88409761330115322</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.86588892275424434</v>
+      </c>
+      <c r="P16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16">
+        <v>92.157198591683326</v>
+      </c>
+      <c r="R16">
+        <v>0.2790241722545943</v>
+      </c>
+      <c r="S16">
+        <v>0.92157198591683331</v>
+      </c>
+      <c r="T16">
+        <v>0.92213313064801528</v>
+      </c>
+      <c r="V16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16">
+        <v>91.209439528023594</v>
+      </c>
+      <c r="X16">
+        <v>0.2441952920088018</v>
+      </c>
+      <c r="Y16">
+        <v>0.91209439528023606</v>
+      </c>
+      <c r="Z16">
+        <v>0.91065522902944829</v>
+      </c>
+    </row>
+    <row r="17" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8">
+        <v>84.612929177588043</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1.586359600078477</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.84612929177588048</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.8092552447390251</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="8">
+        <v>80.619469026548671</v>
+      </c>
+      <c r="L17" s="8">
+        <v>3.233562013204105</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.80619469026548674</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.75644762120425502</v>
+      </c>
+      <c r="P17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17">
+        <v>87.143314388532787</v>
+      </c>
+      <c r="R17">
+        <v>0.67828927671507322</v>
+      </c>
+      <c r="S17">
+        <v>0.87143314388532767</v>
+      </c>
+      <c r="T17">
+        <v>0.84395666013676129</v>
+      </c>
+      <c r="V17" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17">
+        <v>84.188790560471972</v>
+      </c>
+      <c r="X17">
+        <v>1.6903161068510451</v>
+      </c>
+      <c r="Y17">
+        <v>0.84188790560471971</v>
+      </c>
+      <c r="Z17">
+        <v>0.818560294721278</v>
+      </c>
+    </row>
+    <row r="18" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="8">
+        <v>84.660766961651916</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.53764324821815923</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.84660766961651923</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.85253863018511122</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="8">
+        <v>83.451327433628322</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.93226461952898831</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.82538983931584853</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18">
+        <v>81.592920353982294</v>
+      </c>
+      <c r="R18">
+        <v>0.69159540019901056</v>
+      </c>
+      <c r="S18">
+        <v>0.81592920353982312</v>
+      </c>
+      <c r="T18">
+        <v>0.79188526669466386</v>
+      </c>
+      <c r="V18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18">
+        <v>79.680706580506751</v>
+      </c>
+      <c r="X18">
+        <v>1.1016582097512799</v>
+      </c>
+      <c r="Y18">
+        <v>0.79680706580506755</v>
+      </c>
+      <c r="Z18">
+        <v>0.76270706880108241</v>
+      </c>
+    </row>
+    <row r="19" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="8">
+        <v>81.56342182890856</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2.673967352130985</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.81563421828908544</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.80265486655568752</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="8">
+        <v>75.3154439052241</v>
+      </c>
+      <c r="L19" s="8">
+        <v>5.9860679038831641</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.75315443905224089</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.71145166759993628</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>88.466076696165189</v>
+      </c>
+      <c r="R19">
+        <v>0.48829665983986631</v>
+      </c>
+      <c r="S19">
+        <v>0.88466076696165197</v>
+      </c>
+      <c r="T19">
+        <v>0.8681544248099895</v>
+      </c>
+      <c r="V19" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19">
+        <v>85.280235988200587</v>
+      </c>
+      <c r="X19">
+        <v>0.53784578364267366</v>
+      </c>
+      <c r="Y19">
+        <v>0.85280235988200592</v>
+      </c>
+      <c r="Z19">
+        <v>0.84488749626829995</v>
+      </c>
+    </row>
+    <row r="20" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="8">
+        <v>89.705014749262531</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.24808138670413241</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.89705014749262535</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.89300540766582803</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="8">
+        <v>95.472798207596952</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0.1979452263487918</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.95472798207596943</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.95283782109279469</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20">
+        <v>90.935561726312514</v>
+      </c>
+      <c r="R20">
+        <v>0.18194955290944059</v>
+      </c>
+      <c r="S20">
+        <v>0.90935561726312508</v>
+      </c>
+      <c r="T20">
+        <v>0.90088961597949857</v>
+      </c>
+      <c r="V20" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20">
+        <v>92.484018027837607</v>
+      </c>
+      <c r="X20">
+        <v>1.187326075516695</v>
+      </c>
+      <c r="Y20">
+        <v>0.92484018027837611</v>
+      </c>
+      <c r="Z20">
+        <v>0.90409964390522912</v>
+      </c>
+    </row>
+    <row r="21" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="8">
+        <v>86.454035069507512</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1.299892781304117</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.86454035069507518</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.83814826198241266</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="8">
+        <v>92.064896755162252</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.68241953152477919</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.9206489675516224</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.89743574734942422</v>
+      </c>
+      <c r="P21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21">
+        <v>85.522798640126638</v>
+      </c>
+      <c r="R21">
+        <v>0.84638659743383537</v>
+      </c>
+      <c r="S21">
+        <v>0.8552279864012664</v>
+      </c>
+      <c r="T21">
+        <v>0.82434794395859379</v>
+      </c>
+      <c r="V21" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21">
+        <v>83.085147795396153</v>
+      </c>
+      <c r="X21">
+        <v>3.6282813372141112</v>
+      </c>
+      <c r="Y21">
+        <v>0.83085147795396153</v>
+      </c>
+      <c r="Z21">
+        <v>0.79782623759896265</v>
+      </c>
+    </row>
+    <row r="22" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="8">
+        <v>58.736580766269597</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5.8269017250944746</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.58736580766269608</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.5109338215231275</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="8">
+        <v>83.185840707964601</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1.8435340167212</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.83185840707964598</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.80924746754575083</v>
+      </c>
+      <c r="P22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22">
+        <v>87.997387520653291</v>
+      </c>
+      <c r="R22">
+        <v>0.59232099263125992</v>
+      </c>
+      <c r="S22">
+        <v>0.87997387520653292</v>
+      </c>
+      <c r="T22">
+        <v>0.85739372847494411</v>
+      </c>
+      <c r="V22" t="s">
+        <v>23</v>
+      </c>
+      <c r="W22">
+        <v>88.420747584321674</v>
+      </c>
+      <c r="X22">
+        <v>0.74830245694412079</v>
+      </c>
+      <c r="Y22">
+        <v>0.88420747584321668</v>
+      </c>
+      <c r="Z22">
+        <v>0.86190676553988421</v>
+      </c>
+    </row>
+    <row r="23" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="8">
+        <v>98.790560471976406</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2.6841655808057339E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.98790560471976396</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.98787316976916595</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="8">
+        <v>98.554572271386434</v>
+      </c>
+      <c r="L23" s="8">
+        <v>5.3272705575738363E-2</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.98554572271386431</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.98527882563556379</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>98.34808259587021</v>
+      </c>
+      <c r="R23">
+        <v>0.1133805129313401</v>
+      </c>
+      <c r="S23">
+        <v>0.98348082595870212</v>
+      </c>
+      <c r="T23">
+        <v>0.98332440336376303</v>
+      </c>
+      <c r="V23" t="s">
+        <v>24</v>
+      </c>
+      <c r="W23">
+        <v>93.214906703345179</v>
+      </c>
+      <c r="X23">
+        <v>0.4395111509570519</v>
+      </c>
+      <c r="Y23">
+        <v>0.93214906703345191</v>
+      </c>
+      <c r="Z23">
+        <v>0.9326792304329079</v>
+      </c>
+    </row>
+    <row r="24" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="8">
+        <v>78.134239915570205</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3.5876125732677151</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.78134239915570203</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.75421918637701602</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="8">
+        <v>75.871331066877744</v>
+      </c>
+      <c r="L24" s="8">
+        <v>2.5611627253619682</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.75871331066877734</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.73933596665292467</v>
+      </c>
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24">
+        <v>88.166160606925672</v>
+      </c>
+      <c r="R24">
+        <v>1.317339016794828</v>
+      </c>
+      <c r="S24">
+        <v>0.8816616060692567</v>
+      </c>
+      <c r="T24">
+        <v>0.85454180862267892</v>
+      </c>
+      <c r="V24" t="s">
+        <v>25</v>
+      </c>
+      <c r="W24">
+        <v>78.206039844635342</v>
+      </c>
+      <c r="X24">
+        <v>1.534975918153497</v>
+      </c>
+      <c r="Y24">
+        <v>0.78206039844635333</v>
+      </c>
+      <c r="Z24">
+        <v>0.72557958962561031</v>
+      </c>
+    </row>
+    <row r="25" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="8">
+        <v>85.309734513274336</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.54961810198816274</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.85309734513274338</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.85130289677502646</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="8">
+        <v>93.30383480825958</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.64955569834367333</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.93303834808259578</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.91619562254883957</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25">
+        <v>90.442477876106196</v>
+      </c>
+      <c r="R25">
+        <v>0.35039851652240162</v>
+      </c>
+      <c r="S25">
+        <v>0.90442477876106186</v>
+      </c>
+      <c r="T25">
+        <v>0.8877132325219419</v>
+      </c>
+      <c r="V25" t="s">
+        <v>26</v>
+      </c>
+      <c r="W25">
+        <v>92.536873156342182</v>
+      </c>
+      <c r="X25">
+        <v>0.30304490766762471</v>
+      </c>
+      <c r="Y25">
+        <v>0.92536873156342181</v>
+      </c>
+      <c r="Z25">
+        <v>0.91239073629302836</v>
+      </c>
+    </row>
+    <row r="26" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="8">
+        <v>86.208185191913429</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.48987193918679728</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.86208185191913422</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.85390367605165074</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="8">
+        <v>88.623950034169837</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.35074603407618582</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.88623950034169852</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.87603812653016999</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26">
+        <v>92.186870128634339</v>
+      </c>
+      <c r="R26">
+        <v>0.38041571551123238</v>
+      </c>
+      <c r="S26">
+        <v>0.92186870128634335</v>
+      </c>
+      <c r="T26">
+        <v>0.9206390050813219</v>
+      </c>
+      <c r="V26" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26">
+        <v>96.460176991150448</v>
+      </c>
+      <c r="X26">
+        <v>0.1789584649418586</v>
+      </c>
+      <c r="Y26">
+        <v>0.96460176991150437</v>
+      </c>
+      <c r="Z26">
+        <v>0.96470016600827191</v>
+      </c>
+    </row>
+    <row r="27" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="8">
+        <v>97.846607669616517</v>
+      </c>
+      <c r="F27" s="8">
+        <v>9.1258204640966997E-2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.97846607669616525</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.97699452203334636</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="8">
+        <v>91.917144611977605</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0.43437089506871729</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0.91917144611977619</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.91050533613881868</v>
+      </c>
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27">
+        <v>98.259587020648979</v>
+      </c>
+      <c r="R27">
+        <v>3.1127561992847559E-2</v>
+      </c>
+      <c r="S27">
+        <v>0.98259587020648964</v>
+      </c>
+      <c r="T27">
+        <v>0.98259404955229157</v>
+      </c>
+      <c r="V27" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27">
+        <v>99.292035398230084</v>
+      </c>
+      <c r="X27">
+        <v>1.3706516754763009E-2</v>
+      </c>
+      <c r="Y27">
+        <v>0.99292035398230083</v>
+      </c>
+      <c r="Z27">
+        <v>0.9928974765465195</v>
+      </c>
+    </row>
+    <row r="28" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="8">
+        <v>90.425609218072822</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.23065192296822659</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.90425609218072833</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.90309144775565486</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="8">
+        <v>90.353982300884951</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0.43875633422263111</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0.9035398230088495</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0.89760395726197262</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28">
+        <v>81.869825863545529</v>
+      </c>
+      <c r="R28">
+        <v>0.77934747140636507</v>
+      </c>
+      <c r="S28">
+        <v>0.81869825863545531</v>
+      </c>
+      <c r="T28">
+        <v>0.78620944085108546</v>
+      </c>
+      <c r="V28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W28">
+        <v>85.236117959497918</v>
+      </c>
+      <c r="X28">
+        <v>0.82433621598293672</v>
+      </c>
+      <c r="Y28">
+        <v>0.85236117959497926</v>
+      </c>
+      <c r="Z28">
+        <v>0.84359459048668095</v>
+      </c>
+    </row>
+    <row r="29" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="8">
+        <v>91.091445427728615</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1.2464008948682439</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.91091445427728623</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.8889141186524252</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="8">
+        <v>92.772861356932154</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0.39356119769773829</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0.92772861356932146</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0.90416020345701242</v>
+      </c>
+      <c r="P29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29">
+        <v>84.454277286135692</v>
+      </c>
+      <c r="R29">
+        <v>1.0476986292151189</v>
+      </c>
+      <c r="S29">
+        <v>0.84454277286135704</v>
+      </c>
+      <c r="T29">
+        <v>0.81440031190079942</v>
+      </c>
+      <c r="V29" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29">
+        <v>89.203539823008853</v>
+      </c>
+      <c r="X29">
+        <v>0.66656599173794517</v>
+      </c>
+      <c r="Y29">
+        <v>0.89203539823008848</v>
+      </c>
+      <c r="Z29">
+        <v>0.88210085059861709</v>
+      </c>
+    </row>
+    <row r="30" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="8">
+        <v>91.681415929203538</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.2417596357319112</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.91681415929203536</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.90934938709575519</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="8">
+        <v>85.826434484727372</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0.8673674635773978</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0.85826434484727376</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0.83575254451095871</v>
+      </c>
+      <c r="P30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30">
+        <v>91.27232934540956</v>
+      </c>
+      <c r="R30">
+        <v>0.59137670392968855</v>
+      </c>
+      <c r="S30">
+        <v>0.91272329345409564</v>
+      </c>
+      <c r="T30">
+        <v>0.90169662691248575</v>
+      </c>
+      <c r="V30" t="s">
+        <v>31</v>
+      </c>
+      <c r="W30">
+        <v>87.592193704097781</v>
+      </c>
+      <c r="X30">
+        <v>2.3727655467730289</v>
+      </c>
+      <c r="Y30">
+        <v>0.87592193704097787</v>
+      </c>
+      <c r="Z30">
+        <v>0.85369637762649264</v>
+      </c>
+    </row>
+    <row r="31" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="8">
+        <v>88.41382710923105</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.49855456711373453</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.88413827109231047</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.8795031241967457</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="8">
+        <v>88.953278142544491</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0.30117861517006189</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0.8895327814254449</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0.87648528395125813</v>
+      </c>
+      <c r="P31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31">
+        <v>92.745611986262858</v>
+      </c>
+      <c r="R31">
+        <v>0.34905850905833802</v>
+      </c>
+      <c r="S31">
+        <v>0.92745611986262855</v>
+      </c>
+      <c r="T31">
+        <v>0.90535582530305392</v>
+      </c>
+      <c r="V31" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31">
+        <v>93.84293981781849</v>
+      </c>
+      <c r="X31">
+        <v>0.25356179922276001</v>
+      </c>
+      <c r="Y31">
+        <v>0.93842939817818505</v>
+      </c>
+      <c r="Z31">
+        <v>0.93290239705539624</v>
+      </c>
+    </row>
+    <row r="32" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="8">
+        <v>87.217017448247816</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.23809220562867689</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.87217017448247824</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.8666884252270014</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="8">
+        <v>97.050147492625371</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0.1701757250096925</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0.97050147492625372</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.96715793201399958</v>
+      </c>
+      <c r="P32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32">
+        <v>86.407754392339029</v>
+      </c>
+      <c r="R32">
+        <v>0.92722572197148312</v>
+      </c>
+      <c r="S32">
+        <v>0.86407754392339042</v>
+      </c>
+      <c r="T32">
+        <v>0.84294720722946936</v>
+      </c>
+      <c r="V32" t="s">
+        <v>33</v>
+      </c>
+      <c r="W32">
+        <v>91.478732514987158</v>
+      </c>
+      <c r="X32">
+        <v>0.2588571564161572</v>
+      </c>
+      <c r="Y32">
+        <v>0.9147873251498716</v>
+      </c>
+      <c r="Z32">
+        <v>0.90830484933657907</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="8">
+        <v>85.168816339241687</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.98842016838233815</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.85168816339241682</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0.81647369726212859</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="8">
+        <v>86.281542227873942</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0.33283952832521191</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0.86281542227873942</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0.85169529582323611</v>
+      </c>
+      <c r="P33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q33">
+        <v>91.356932153392336</v>
+      </c>
+      <c r="R33">
+        <v>0.70171593537111221</v>
+      </c>
+      <c r="S33">
+        <v>0.91356932153392323</v>
+      </c>
+      <c r="T33">
+        <v>0.89060914653690548</v>
+      </c>
+      <c r="V33" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33">
+        <v>90.175866573240256</v>
+      </c>
+      <c r="X33">
+        <v>0.55374069328076847</v>
+      </c>
+      <c r="Y33">
+        <v>0.9017586657324026</v>
+      </c>
+      <c r="Z33">
+        <v>0.89858931957134636</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="8">
+        <v>97.050147492625371</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.13572083493358961</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.97050147492625372</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0.96999405522929671</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="8">
+        <v>89.941002949852503</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0.70993520097389817</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0.899410029498525</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0.87742319351657927</v>
+      </c>
+      <c r="P34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34">
+        <v>96.106194690265482</v>
+      </c>
+      <c r="R34">
+        <v>0.13023098494149579</v>
+      </c>
+      <c r="S34">
+        <v>0.9610619469026549</v>
+      </c>
+      <c r="T34">
+        <v>0.95974598854002946</v>
+      </c>
+      <c r="V34" t="s">
+        <v>35</v>
+      </c>
+      <c r="W34">
+        <v>95.488974818121264</v>
+      </c>
+      <c r="X34">
+        <v>0.34257618667404438</v>
+      </c>
+      <c r="Y34">
+        <v>0.95488974818121264</v>
+      </c>
+      <c r="Z34">
+        <v>0.95004439917845807</v>
+      </c>
+    </row>
+    <row r="35" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="8">
+        <v>91.497763821486345</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.363323822275125</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.91497763821486333</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.9119385908707901</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="8">
+        <v>95.343904359034255</v>
+      </c>
+      <c r="L35" s="8">
+        <v>8.4569517094236532E-2</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0.95343904359034259</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0.95343233298518371</v>
+      </c>
+      <c r="P35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35">
+        <v>78.823432728656826</v>
+      </c>
+      <c r="R35">
+        <v>4.7691618657688144</v>
+      </c>
+      <c r="S35">
+        <v>0.78823432728656828</v>
+      </c>
+      <c r="T35">
+        <v>0.74428358102460368</v>
+      </c>
+      <c r="V35" t="s">
+        <v>36</v>
+      </c>
+      <c r="W35">
+        <v>93.406690369293841</v>
+      </c>
+      <c r="X35">
+        <v>0.30440057846532498</v>
+      </c>
+      <c r="Y35">
+        <v>0.93406690369293854</v>
+      </c>
+      <c r="Z35">
+        <v>0.93295858752981609</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="8">
+        <v>97.227138643067846</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.13275066705462921</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.97227138643067845</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.97121306803995222</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="8">
+        <v>99.911504424778769</v>
+      </c>
+      <c r="L36" s="8">
+        <v>2.9588885377055622E-3</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0.99911504424778763</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0.99911575353165749</v>
+      </c>
+      <c r="P36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36">
+        <v>91.769911504424769</v>
+      </c>
+      <c r="R36">
+        <v>0.39694236123960608</v>
+      </c>
+      <c r="S36">
+        <v>0.91769911504424795</v>
+      </c>
+      <c r="T36">
+        <v>0.91473940472844961</v>
+      </c>
+      <c r="V36" t="s">
+        <v>37</v>
+      </c>
+      <c r="W36">
+        <v>96.873156342182895</v>
+      </c>
+      <c r="X36">
+        <v>0.33733566418897321</v>
+      </c>
+      <c r="Y36">
+        <v>0.96873156342182887</v>
+      </c>
+      <c r="Z36">
+        <v>0.96749696103673732</v>
+      </c>
+    </row>
+    <row r="37" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="8">
+        <v>92.4392944575645</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.19153852670998689</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.92439294457564514</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.92304649043758358</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="8">
+        <v>79.203539823008853</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0.69877355624695281</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0.79203539823008851</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0.75602955760724067</v>
+      </c>
+      <c r="P37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q37">
+        <v>97.052396647029823</v>
+      </c>
+      <c r="R37">
+        <v>5.7251761081853772E-2</v>
+      </c>
+      <c r="S37">
+        <v>0.97052396647029815</v>
+      </c>
+      <c r="T37">
+        <v>0.97010429025886746</v>
+      </c>
+      <c r="V37" t="s">
+        <v>38</v>
+      </c>
+      <c r="W37">
+        <v>89.823008849557525</v>
+      </c>
+      <c r="X37">
+        <v>1.0167194328997899</v>
+      </c>
+      <c r="Y37">
+        <v>0.89823008849557517</v>
+      </c>
+      <c r="Z37">
+        <v>0.87939759174896803</v>
+      </c>
+    </row>
+    <row r="38" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="8">
+        <v>78.053097345132741</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1.6557666355309519</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0.78053097345132749</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.72871638303877861</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="8">
+        <v>74.490955804115956</v>
+      </c>
+      <c r="L38" s="8">
+        <v>2.25634042811294</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0.74490955804115955</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0.71361184254628285</v>
+      </c>
+      <c r="P38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38">
+        <v>79.129923269232421</v>
+      </c>
+      <c r="R38">
+        <v>1.088248796185479</v>
+      </c>
+      <c r="S38">
+        <v>0.79129923269232427</v>
+      </c>
+      <c r="T38">
+        <v>0.75681544536793122</v>
+      </c>
+      <c r="V38" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38">
+        <v>92.477876106194685</v>
+      </c>
+      <c r="X38">
+        <v>0.51902758207799393</v>
+      </c>
+      <c r="Y38">
+        <v>0.9247787610619469</v>
+      </c>
+      <c r="Z38">
+        <v>0.89976157664445622</v>
+      </c>
+    </row>
+    <row r="39" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="8">
+        <v>90.06851270339709</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.44263778917302232</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.90068512703397086</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.89673607808145017</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="8">
+        <v>92.588517201705898</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0.55246760983398147</v>
+      </c>
+      <c r="M39" s="8">
+        <v>0.925885172017059</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0.91953805960683488</v>
+      </c>
+      <c r="P39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39">
+        <v>73.126843657817105</v>
+      </c>
+      <c r="R39">
+        <v>12.251119971834211</v>
+      </c>
+      <c r="S39">
+        <v>0.73126843657817109</v>
+      </c>
+      <c r="T39">
+        <v>0.67089241355079543</v>
+      </c>
+      <c r="V39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39">
+        <v>95.523317675758435</v>
+      </c>
+      <c r="X39">
+        <v>0.28795551691514237</v>
+      </c>
+      <c r="Y39">
+        <v>0.95523317675758435</v>
+      </c>
+      <c r="Z39">
+        <v>0.95375788172450715</v>
+      </c>
+    </row>
+    <row r="40" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="8">
+        <v>91.681415929203538</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0.17627057132306151</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.91681415929203536</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0.91644615608725744</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="8">
+        <v>92.30088495575221</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0.312624774938351</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0.92300884955752205</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0.92023574164513633</v>
+      </c>
+      <c r="P40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q40">
+        <v>92.418879056047189</v>
+      </c>
+      <c r="R40">
+        <v>0.15801669478432859</v>
+      </c>
+      <c r="S40">
+        <v>0.92418879056047198</v>
+      </c>
+      <c r="T40">
+        <v>0.90215232468261808</v>
+      </c>
+      <c r="V40" t="s">
+        <v>41</v>
+      </c>
+      <c r="W40">
+        <v>89.985207484493813</v>
+      </c>
+      <c r="X40">
+        <v>0.39733175820624311</v>
+      </c>
+      <c r="Y40">
+        <v>0.89985207484493812</v>
+      </c>
+      <c r="Z40">
+        <v>0.89361426586048331</v>
+      </c>
+    </row>
+    <row r="41" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="8">
+        <v>99.174041297935105</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1.993839788912008E-2</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.991740412979351</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.99170493840323604</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="8">
+        <v>98.558551544563528</v>
+      </c>
+      <c r="L41" s="8">
+        <v>2.949868214682165E-2</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0.98558551544563533</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0.98553747039527906</v>
+      </c>
+      <c r="P41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="R41">
+        <v>9.5767335255183605E-2</v>
+      </c>
+      <c r="S41">
+        <v>0.95781710914454288</v>
+      </c>
+      <c r="T41">
+        <v>0.95696777034586655</v>
+      </c>
+      <c r="V41" t="s">
+        <v>42</v>
+      </c>
+      <c r="W41">
+        <v>95.103244837758112</v>
+      </c>
+      <c r="X41">
+        <v>0.36204930271266089</v>
+      </c>
+      <c r="Y41">
+        <v>0.95103244837758116</v>
+      </c>
+      <c r="Z41">
+        <v>0.94359869511337668</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="8">
+        <v>95.87020648967551</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.10686971986188661</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0.95870206489675525</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.95483011555476449</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="8">
+        <v>97.846607669616517</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0.15693279583442241</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0.97846607669616525</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0.97796090708316608</v>
+      </c>
+      <c r="P42" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q42">
+        <v>92.49638837706209</v>
+      </c>
+      <c r="R42">
+        <v>0.26901806988611099</v>
+      </c>
+      <c r="S42">
+        <v>0.92496388377062078</v>
+      </c>
+      <c r="T42">
+        <v>0.92225758453154005</v>
+      </c>
+      <c r="V42" t="s">
+        <v>43</v>
+      </c>
+      <c r="W42">
+        <v>89.800776823328917</v>
+      </c>
+      <c r="X42">
+        <v>0.96623247371544108</v>
+      </c>
+      <c r="Y42">
+        <v>0.89800776823328921</v>
+      </c>
+      <c r="Z42">
+        <v>0.87978108812737399</v>
+      </c>
+    </row>
+    <row r="43" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="8">
+        <v>93.307468057682158</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.1305816462137343</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0.93307468057682164</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.93299826132848107</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="8">
+        <v>89.203539823008853</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0.5472277631981789</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0.89203539823008848</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0.87928061671230096</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43">
+        <v>89.262536873156336</v>
+      </c>
+      <c r="R43">
+        <v>0.56620777579592008</v>
+      </c>
+      <c r="S43">
+        <v>0.89262536873156351</v>
+      </c>
+      <c r="T43">
+        <v>0.87164271847215813</v>
+      </c>
+      <c r="V43" t="s">
+        <v>44</v>
+      </c>
+      <c r="W43">
+        <v>76.431457019524402</v>
+      </c>
+      <c r="X43">
+        <v>3.372471927772104</v>
+      </c>
+      <c r="Y43">
+        <v>0.76431457019524385</v>
+      </c>
+      <c r="Z43">
+        <v>0.71875754650967372</v>
+      </c>
+    </row>
+    <row r="44" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="8">
+        <v>88.967551622418881</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1.2215524554382149</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0.88967551622418883</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.8767814528594593</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" s="8">
+        <v>74.21828908554572</v>
+      </c>
+      <c r="L44" s="8">
+        <v>1.656474463369648</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0.7421828908554573</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0.70721923550672972</v>
+      </c>
+      <c r="P44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44">
+        <v>71.10978468671874</v>
+      </c>
+      <c r="R44">
+        <v>4.1997399722938944</v>
+      </c>
+      <c r="S44">
+        <v>0.71109784686718736</v>
+      </c>
+      <c r="T44">
+        <v>0.66979736625070629</v>
+      </c>
+      <c r="V44" t="s">
+        <v>45</v>
+      </c>
+      <c r="W44">
+        <v>81.769911504424769</v>
+      </c>
+      <c r="X44">
+        <v>1.098131330730777</v>
+      </c>
+      <c r="Y44">
+        <v>0.81769911504424775</v>
+      </c>
+      <c r="Z44">
+        <v>0.81169986389137239</v>
+      </c>
+    </row>
+    <row r="45" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="8">
+        <v>74.928416335781463</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2.1905995884599632</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.74928416335781445</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.70483010387193878</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" s="8">
+        <v>91.514459467642453</v>
+      </c>
+      <c r="L45" s="8">
+        <v>1.256328645924714</v>
+      </c>
+      <c r="M45" s="8">
+        <v>0.91514459467642451</v>
+      </c>
+      <c r="N45" s="8">
+        <v>0.89363208649020032</v>
+      </c>
+      <c r="P45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45">
+        <v>88.391422071125177</v>
+      </c>
+      <c r="R45">
+        <v>0.73365550423934756</v>
+      </c>
+      <c r="S45">
+        <v>0.88391422071125181</v>
+      </c>
+      <c r="T45">
+        <v>0.87447269646819448</v>
+      </c>
+      <c r="V45" t="s">
+        <v>46</v>
+      </c>
+      <c r="W45">
+        <v>93.314907568404564</v>
+      </c>
+      <c r="X45">
+        <v>0.37908743798876487</v>
+      </c>
+      <c r="Y45">
+        <v>0.9331490756840457</v>
+      </c>
+      <c r="Z45">
+        <v>0.92389794380747559</v>
+      </c>
+    </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="8">
+        <v>97.411915327987259</v>
+      </c>
+      <c r="F46" s="8">
+        <v>9.0725280249881038E-2</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0.97411915327987264</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0.97400611492202849</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" s="8">
+        <v>97.817109144542769</v>
+      </c>
+      <c r="L46" s="8">
+        <v>7.7265945022123944E-2</v>
+      </c>
+      <c r="M46" s="8">
+        <v>0.9781710914454278</v>
+      </c>
+      <c r="N46" s="8">
+        <v>0.97733247067040785</v>
+      </c>
+      <c r="P46" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q46">
+        <v>92.772861356932154</v>
+      </c>
+      <c r="R46">
+        <v>0.45289691665668769</v>
+      </c>
+      <c r="S46">
+        <v>0.92772861356932146</v>
+      </c>
+      <c r="T46">
+        <v>0.92094635986380458</v>
+      </c>
+      <c r="V46" t="s">
+        <v>47</v>
+      </c>
+      <c r="W46">
+        <v>87.787610619469021</v>
+      </c>
+      <c r="X46">
+        <v>1.0308756572662221</v>
+      </c>
+      <c r="Y46">
+        <v>0.87787610619469025</v>
+      </c>
+      <c r="Z46">
+        <v>0.86182161060289353</v>
+      </c>
+    </row>
+    <row r="47" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="8">
+        <v>96.489675516224196</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.1169444791657933</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0.96489675516224194</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0.96392980212574331</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47" s="8">
+        <v>97.440894817429211</v>
+      </c>
+      <c r="L47" s="8">
+        <v>5.4892303555485952E-2</v>
+      </c>
+      <c r="M47" s="8">
+        <v>0.97440894817429213</v>
+      </c>
+      <c r="N47" s="8">
+        <v>0.974249957882934</v>
+      </c>
+      <c r="P47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47">
+        <v>99.442815249266872</v>
+      </c>
+      <c r="R47">
+        <v>1.6701231304411542E-2</v>
+      </c>
+      <c r="S47">
+        <v>0.99442815249266869</v>
+      </c>
+      <c r="T47">
+        <v>0.99440373598299581</v>
+      </c>
+      <c r="V47" t="s">
+        <v>48</v>
+      </c>
+      <c r="W47">
+        <v>98.053097345132741</v>
+      </c>
+      <c r="X47">
+        <v>5.4746989079616649E-2</v>
+      </c>
+      <c r="Y47">
+        <v>0.98053097345132745</v>
+      </c>
+      <c r="Z47">
+        <v>0.98033498173889666</v>
+      </c>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.15">
+      <c r="D48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="8">
+        <v>92.931513248384505</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.50113995533333666</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0.9293151324838449</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0.90725235809754601</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="8">
+        <v>98.123167155425222</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0.3505753022049381</v>
+      </c>
+      <c r="M48" s="8">
+        <v>0.98123167155425217</v>
+      </c>
+      <c r="N48" s="8">
+        <v>0.98099842453965758</v>
+      </c>
+      <c r="P48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q48">
+        <v>93.126843657817105</v>
+      </c>
+      <c r="R48">
+        <v>0.67858942842467496</v>
+      </c>
+      <c r="S48">
+        <v>0.93126843657817115</v>
+      </c>
+      <c r="T48">
+        <v>0.90829273614555406</v>
+      </c>
+      <c r="V48" t="s">
+        <v>49</v>
+      </c>
+      <c r="W48">
+        <v>93.126843657817105</v>
+      </c>
+      <c r="X48">
+        <v>0.75269471363474927</v>
+      </c>
+      <c r="Y48">
+        <v>0.93126843657817115</v>
+      </c>
+      <c r="Z48">
+        <v>0.90829273614555406</v>
+      </c>
+    </row>
+    <row r="49" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="D49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="8">
+        <f>AVERAGE(E4:E48)</f>
+        <v>87.032083130284661</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="J49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49" s="8">
+        <f>AVERAGE(K4:K48)</f>
+        <v>87.736443317944889</v>
+      </c>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="P49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49">
+        <f>AVERAGE(Q4:Q48)</f>
+        <v>87.268188594480335</v>
+      </c>
+      <c r="V49" t="s">
+        <v>50</v>
+      </c>
+      <c r="W49">
+        <f>AVERAGE(W4:W48)</f>
+        <v>88.534245298161949</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC49" t="e">
+        <f>AVERAGE(AC4:AC48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI49" t="e">
+        <f>AVERAGE(AI4:AI48)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -9725,7 +12851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL49"/>
   <sheetViews>
@@ -9733,78 +12859,78 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="6"/>
+    <col min="1" max="2" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
       <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="2"/>
       <c r="J1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
       <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
       <c r="V1" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
       <c r="AA1" s="2"/>
       <c r="AB1" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
       <c r="AH1" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D2" t="s">
@@ -9816,10 +12942,10 @@
       <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="4" t="b">
+      <c r="G2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
         <v>57</v>
@@ -9830,10 +12956,10 @@
       <c r="L2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="6"/>
       <c r="P2" t="s">
         <v>57</v>
       </c>
@@ -9856,10 +12982,10 @@
       <c r="X2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="4"/>
+      <c r="Z2" s="6"/>
       <c r="AA2" s="2"/>
       <c r="AB2" t="s">
         <v>57</v>
@@ -9870,10 +12996,10 @@
       <c r="AD2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="4" t="b">
+      <c r="AE2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" s="4"/>
+      <c r="AF2" s="6"/>
       <c r="AH2" t="s">
         <v>57</v>
       </c>
@@ -9883,16 +13009,16 @@
       <c r="AJ2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AL2" s="4"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="AL2" s="6"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -9988,11 +13114,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>24</v>
       </c>
       <c r="D4" t="s">
@@ -10086,11 +13212,11 @@
         <v>89.113109068128381</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
@@ -10184,7 +13310,7 @@
         <v>66.603075055656205</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -10276,7 +13402,7 @@
         <v>73.637029361155498</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -10368,7 +13494,7 @@
         <v>51.932354853461668</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -10460,7 +13586,7 @@
         <v>73.555768105877377</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -10552,7 +13678,7 @@
         <v>83.682682076902253</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -10644,7 +13770,7 @@
         <v>83.269860784071767</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -10736,7 +13862,7 @@
         <v>80.687174857595252</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -10828,7 +13954,7 @@
         <v>90.011106975717524</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -10920,7 +14046,7 @@
         <v>95.296592806254694</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -11012,7 +14138,7 @@
         <v>87.808609056228704</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -11104,7 +14230,7 @@
         <v>94.186407133144755</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>17</v>
       </c>
@@ -11196,7 +14322,7 @@
         <v>0.89596755230198721</v>
       </c>
     </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>18</v>
       </c>
@@ -11288,7 +14414,7 @@
         <v>95.454429087615409</v>
       </c>
     </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -11380,7 +14506,7 @@
         <v>75.004747348191373</v>
       </c>
     </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -11472,7 +14598,7 @@
         <v>83.531173631258795</v>
       </c>
     </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>21</v>
       </c>
@@ -11564,7 +14690,7 @@
         <v>97.512282072458035</v>
       </c>
     </row>
-    <row r="21" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -11656,7 +14782,7 @@
         <v>88.205318553365387</v>
       </c>
     </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>23</v>
       </c>
@@ -11748,7 +14874,7 @@
         <v>87.431218064072681</v>
       </c>
     </row>
-    <row r="23" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>24</v>
       </c>
@@ -11840,7 +14966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>25</v>
       </c>
@@ -11932,7 +15058,7 @@
         <v>74.537523069664104</v>
       </c>
     </row>
-    <row r="25" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>26</v>
       </c>
@@ -12024,7 +15150,7 @@
         <v>90.396861550789041</v>
       </c>
     </row>
-    <row r="26" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -12116,7 +15242,7 @@
         <v>85.526665173664327</v>
       </c>
     </row>
-    <row r="27" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
         <v>28</v>
       </c>
@@ -12208,7 +15334,7 @@
         <v>96.109310569563746</v>
       </c>
     </row>
-    <row r="28" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
         <v>29</v>
       </c>
@@ -12300,7 +15426,7 @@
         <v>96.237498873141845</v>
       </c>
     </row>
-    <row r="29" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
         <v>30</v>
       </c>
@@ -12392,7 +15518,7 @@
         <v>87.913657040953638</v>
       </c>
     </row>
-    <row r="30" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
         <v>31</v>
       </c>
@@ -12484,7 +15610,7 @@
         <v>87.781039008514128</v>
       </c>
     </row>
-    <row r="31" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
         <v>32</v>
       </c>
@@ -12576,7 +15702,7 @@
         <v>73.982285640474061</v>
       </c>
     </row>
-    <row r="32" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -12668,7 +15794,7 @@
         <v>93.213780108620966</v>
       </c>
     </row>
-    <row r="33" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
         <v>34</v>
       </c>
@@ -12760,7 +15886,7 @@
         <v>90.250751970792933</v>
       </c>
     </row>
-    <row r="34" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>35</v>
       </c>
@@ -12852,7 +15978,7 @@
         <v>94.62749392944508</v>
       </c>
     </row>
-    <row r="35" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
         <v>36</v>
       </c>
@@ -12944,7 +16070,7 @@
         <v>94.587309646135978</v>
       </c>
     </row>
-    <row r="36" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
         <v>37</v>
       </c>
@@ -13036,7 +16162,7 @@
         <v>97.029070237115235</v>
       </c>
     </row>
-    <row r="37" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>38</v>
       </c>
@@ -13128,7 +16254,7 @@
         <v>86.440890148279394</v>
       </c>
     </row>
-    <row r="38" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
         <v>39</v>
       </c>
@@ -13220,7 +16346,7 @@
         <v>85.446396318046737</v>
       </c>
     </row>
-    <row r="39" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>40</v>
       </c>
@@ -13312,7 +16438,7 @@
         <v>95.48927635718141</v>
       </c>
     </row>
-    <row r="40" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>41</v>
       </c>
@@ -13404,7 +16530,7 @@
         <v>95.324581114041081</v>
       </c>
     </row>
-    <row r="41" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>42</v>
       </c>
@@ -13496,7 +16622,7 @@
         <v>99.823270880310019</v>
       </c>
     </row>
-    <row r="42" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
         <v>43</v>
       </c>
@@ -13588,7 +16714,7 @@
         <v>99.438837905393754</v>
       </c>
     </row>
-    <row r="43" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
         <v>44</v>
       </c>
@@ -13680,7 +16806,7 @@
         <v>87.7238258080897</v>
       </c>
     </row>
-    <row r="44" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -13772,7 +16898,7 @@
         <v>82.313793072963421</v>
       </c>
     </row>
-    <row r="45" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
         <v>46</v>
       </c>
@@ -13864,7 +16990,7 @@
         <v>91.716855355910369</v>
       </c>
     </row>
-    <row r="46" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D46" t="s">
         <v>47</v>
       </c>
@@ -13956,7 +17082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D47" t="s">
         <v>48</v>
       </c>
@@ -14048,7 +17174,7 @@
         <v>94.938117154425143</v>
       </c>
     </row>
-    <row r="48" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D48" t="s">
         <v>49</v>
       </c>
@@ -14140,7 +17266,7 @@
         <v>99.189451032902554</v>
       </c>
     </row>
-    <row r="49" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
         <v>50</v>
       </c>

--- a/Results/summary_5_fold_eva.xlsx
+++ b/Results/summary_5_fold_eva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\channelmatrix_2d\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C80E35C-EF19-4B5E-BA8F-B2616B7C843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0FFC20-5821-4571-B222-4DCEEB4CFBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5207,12 +5207,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="S52:T52"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="S2:T2"/>
@@ -5220,6 +5214,12 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="S52:T52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9687,6 +9687,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -9695,11 +9700,6 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14167,11 +14167,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -14180,6 +14175,11 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23127,11 +23127,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -23140,6 +23135,11 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24232,6 +24232,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="M2:N2"/>
@@ -24239,11 +24244,6 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
